--- a/scripts/Bodyweight_analysis_week_EJS/Bodyweight_analysis_week.xlsx
+++ b/scripts/Bodyweight_analysis_week_EJS/Bodyweight_analysis_week.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteph16\Documents\GitHub\ObesityParticulateTreatment\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteph16\Documents\GitHub\ObesityParticulateTreatment\scripts\Bodyweight_analysis_week_EJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="11">
   <si>
     <t>Age</t>
   </si>
@@ -45,16 +45,13 @@
     <t>Saline</t>
   </si>
   <si>
-    <t>MCP231</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
     <t>Weight_mg</t>
   </si>
   <si>
-    <t>Age_at_start</t>
+    <t>Age_at_treatment_start</t>
   </si>
 </sst>
 </file>
@@ -863,30 +860,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="K279" sqref="K278:K279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -897,16 +899,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>74</v>
       </c>
-      <c r="B2">
-        <v>201</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>26710</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
       <c r="E2">
         <v>26.71</v>
@@ -923,16 +925,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>74</v>
       </c>
-      <c r="B3">
-        <v>202</v>
-      </c>
-      <c r="C3">
+      <c r="D3">
         <v>27800</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
       <c r="E3">
         <v>27.8</v>
@@ -949,16 +951,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>74</v>
       </c>
-      <c r="B4">
-        <v>214</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
         <v>26040</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
       <c r="E4">
         <v>26.04</v>
@@ -975,16 +977,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2500</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>74</v>
       </c>
-      <c r="B5">
-        <v>2500</v>
-      </c>
-      <c r="C5">
+      <c r="D5">
         <v>27410</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
       </c>
       <c r="E5">
         <v>27.41</v>
@@ -1001,16 +1003,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>75</v>
       </c>
-      <c r="B6">
-        <v>203</v>
-      </c>
-      <c r="C6">
+      <c r="D6">
         <v>29100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
       </c>
       <c r="E6">
         <v>29.1</v>
@@ -1027,16 +1029,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>75</v>
       </c>
-      <c r="B7">
-        <v>204</v>
-      </c>
-      <c r="C7">
+      <c r="D7">
         <v>26670</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
       </c>
       <c r="E7">
         <v>26.67</v>
@@ -1053,16 +1055,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>75</v>
       </c>
-      <c r="B8">
-        <v>207</v>
-      </c>
-      <c r="C8">
+      <c r="D8">
         <v>26400</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
       </c>
       <c r="E8">
         <v>26.4</v>
@@ -1079,16 +1081,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>75</v>
       </c>
-      <c r="B9">
-        <v>208</v>
-      </c>
-      <c r="C9">
+      <c r="D9">
         <v>30170</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
       </c>
       <c r="E9">
         <v>30.17</v>
@@ -1105,16 +1107,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>75</v>
       </c>
-      <c r="B10">
-        <v>209</v>
-      </c>
-      <c r="C10">
+      <c r="D10">
         <v>26670</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
       </c>
       <c r="E10">
         <v>26.67</v>
@@ -1131,16 +1133,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>75</v>
       </c>
-      <c r="B11">
-        <v>250</v>
-      </c>
-      <c r="C11">
+      <c r="D11">
         <v>28280</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
       </c>
       <c r="E11">
         <v>28.28</v>
@@ -1157,16 +1159,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
         <v>68</v>
       </c>
-      <c r="B12">
-        <v>298</v>
-      </c>
-      <c r="C12">
+      <c r="D12">
         <v>23900</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
       </c>
       <c r="E12">
         <v>23.9</v>
@@ -1183,16 +1185,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>292</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>68</v>
       </c>
-      <c r="B13">
-        <v>292</v>
-      </c>
-      <c r="C13">
+      <c r="D13">
         <v>23000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
       </c>
       <c r="E13">
         <v>23</v>
@@ -1209,16 +1211,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>293</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
         <v>68</v>
       </c>
-      <c r="B14">
-        <v>293</v>
-      </c>
-      <c r="C14">
+      <c r="D14">
         <v>25200</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
       </c>
       <c r="E14">
         <v>25.2</v>
@@ -1235,16 +1237,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
         <v>68</v>
       </c>
-      <c r="B15">
-        <v>290</v>
-      </c>
-      <c r="C15">
+      <c r="D15">
         <v>23400</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
       </c>
       <c r="E15">
         <v>23.4</v>
@@ -1261,16 +1263,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>297</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
         <v>68</v>
       </c>
-      <c r="B16">
-        <v>297</v>
-      </c>
-      <c r="C16">
+      <c r="D16">
         <v>25000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
       </c>
       <c r="E16">
         <v>25</v>
@@ -1287,16 +1289,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>291</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
         <v>69</v>
       </c>
-      <c r="B17">
-        <v>291</v>
-      </c>
-      <c r="C17">
+      <c r="D17">
         <v>30700</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
       </c>
       <c r="E17">
         <v>30.7</v>
@@ -1313,16 +1315,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>69</v>
       </c>
-      <c r="B18">
-        <v>294</v>
-      </c>
-      <c r="C18">
+      <c r="D18">
         <v>28100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
       </c>
       <c r="E18">
         <v>28.1</v>
@@ -1339,16 +1341,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>71</v>
-      </c>
-      <c r="B19">
         <v>277</v>
       </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
       <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19">
         <v>22700</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
       </c>
       <c r="E19">
         <v>22.7</v>
@@ -1365,16 +1367,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>71</v>
-      </c>
-      <c r="B20">
         <v>300</v>
       </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
       <c r="C20">
+        <v>71</v>
+      </c>
+      <c r="D20">
         <v>24600</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
       </c>
       <c r="E20">
         <v>24.6</v>
@@ -1391,16 +1393,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>71</v>
-      </c>
-      <c r="B21">
         <v>281</v>
       </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
       <c r="C21">
+        <v>71</v>
+      </c>
+      <c r="D21">
         <v>25400</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
       </c>
       <c r="E21">
         <v>25.4</v>
@@ -1417,16 +1419,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>71</v>
-      </c>
-      <c r="B22">
         <v>279</v>
       </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
       <c r="C22">
+        <v>71</v>
+      </c>
+      <c r="D22">
         <v>26800</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
       </c>
       <c r="E22">
         <v>26.8</v>
@@ -1443,16 +1445,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>71</v>
-      </c>
-      <c r="B23">
         <v>278</v>
       </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
       <c r="C23">
+        <v>71</v>
+      </c>
+      <c r="D23">
         <v>23700</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
       </c>
       <c r="E23">
         <v>23.7</v>
@@ -1469,16 +1471,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>71</v>
-      </c>
-      <c r="B24">
         <v>280</v>
       </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
       <c r="C24">
+        <v>71</v>
+      </c>
+      <c r="D24">
         <v>29000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
       </c>
       <c r="E24">
         <v>29</v>
@@ -1495,16 +1497,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>71</v>
-      </c>
-      <c r="B25">
         <v>276</v>
       </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
       <c r="C25">
+        <v>71</v>
+      </c>
+      <c r="D25">
         <v>25500</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
       </c>
       <c r="E25">
         <v>25.5</v>
@@ -1521,16 +1523,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
         <v>81</v>
       </c>
-      <c r="B26">
-        <v>201</v>
-      </c>
-      <c r="C26">
+      <c r="D26">
         <v>32200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
       </c>
       <c r="E26">
         <v>32.200000000000003</v>
@@ -1547,16 +1549,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
         <v>81</v>
       </c>
-      <c r="B27">
-        <v>202</v>
-      </c>
-      <c r="C27">
+      <c r="D27">
         <v>32200</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
       </c>
       <c r="E27">
         <v>32.200000000000003</v>
@@ -1573,16 +1575,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
         <v>81</v>
       </c>
-      <c r="B28">
-        <v>214</v>
-      </c>
-      <c r="C28">
+      <c r="D28">
         <v>28400</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
       </c>
       <c r="E28">
         <v>28.4</v>
@@ -1599,16 +1601,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>2500</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
         <v>81</v>
       </c>
-      <c r="B29">
-        <v>2500</v>
-      </c>
-      <c r="C29">
+      <c r="D29">
         <v>29700</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
       </c>
       <c r="E29">
         <v>29.7</v>
@@ -1625,16 +1627,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
         <v>82</v>
       </c>
-      <c r="B30">
-        <v>203</v>
-      </c>
-      <c r="C30">
+      <c r="D30">
         <v>31200</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
       </c>
       <c r="E30">
         <v>31.2</v>
@@ -1651,16 +1653,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>82</v>
       </c>
-      <c r="B31">
-        <v>204</v>
-      </c>
-      <c r="C31">
+      <c r="D31">
         <v>27500</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
       </c>
       <c r="E31">
         <v>27.5</v>
@@ -1677,16 +1679,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>207</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
         <v>82</v>
       </c>
-      <c r="B32">
-        <v>207</v>
-      </c>
-      <c r="C32">
+      <c r="D32">
         <v>29100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
       </c>
       <c r="E32">
         <v>29.1</v>
@@ -1703,16 +1705,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
         <v>82</v>
       </c>
-      <c r="B33">
-        <v>208</v>
-      </c>
-      <c r="C33">
+      <c r="D33">
         <v>32600</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
       </c>
       <c r="E33">
         <v>32.6</v>
@@ -1729,16 +1731,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
         <v>82</v>
       </c>
-      <c r="B34">
-        <v>209</v>
-      </c>
-      <c r="C34">
+      <c r="D34">
         <v>28800</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
       </c>
       <c r="E34">
         <v>28.8</v>
@@ -1755,16 +1757,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
         <v>82</v>
       </c>
-      <c r="B35">
-        <v>250</v>
-      </c>
-      <c r="C35">
+      <c r="D35">
         <v>32200</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
       </c>
       <c r="E35">
         <v>32.200000000000003</v>
@@ -1781,16 +1783,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>298</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
         <v>75</v>
       </c>
-      <c r="B36">
-        <v>298</v>
-      </c>
-      <c r="C36">
+      <c r="D36">
         <v>24200</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
       </c>
       <c r="E36">
         <v>24.2</v>
@@ -1807,16 +1809,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>292</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
         <v>75</v>
       </c>
-      <c r="B37">
-        <v>292</v>
-      </c>
-      <c r="C37">
+      <c r="D37">
         <v>23900</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
       </c>
       <c r="E37">
         <v>23.9</v>
@@ -1833,16 +1835,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>293</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
         <v>75</v>
       </c>
-      <c r="B38">
-        <v>293</v>
-      </c>
-      <c r="C38">
+      <c r="D38">
         <v>26400</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
       </c>
       <c r="E38">
         <v>26.4</v>
@@ -1859,16 +1861,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>290</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
         <v>75</v>
       </c>
-      <c r="B39">
-        <v>290</v>
-      </c>
-      <c r="C39">
+      <c r="D39">
         <v>24400</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
       </c>
       <c r="E39">
         <v>24.4</v>
@@ -1885,16 +1887,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>297</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
         <v>75</v>
       </c>
-      <c r="B40">
-        <v>297</v>
-      </c>
-      <c r="C40">
+      <c r="D40">
         <v>26400</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
       </c>
       <c r="E40">
         <v>26.4</v>
@@ -1911,16 +1913,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>291</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
         <v>76</v>
       </c>
-      <c r="B41">
-        <v>291</v>
-      </c>
-      <c r="C41">
+      <c r="D41">
         <v>36500</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
       </c>
       <c r="E41">
         <v>36.5</v>
@@ -1937,16 +1939,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>294</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
         <v>76</v>
       </c>
-      <c r="B42">
-        <v>294</v>
-      </c>
-      <c r="C42">
+      <c r="D42">
         <v>34800</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
       </c>
       <c r="E42">
         <v>34.799999999999997</v>
@@ -1963,16 +1965,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>277</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
         <v>78</v>
       </c>
-      <c r="B43">
-        <v>277</v>
-      </c>
-      <c r="C43">
+      <c r="D43">
         <v>23300</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
       </c>
       <c r="E43">
         <v>23.3</v>
@@ -1989,16 +1991,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>300</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
         <v>78</v>
       </c>
-      <c r="B44">
-        <v>300</v>
-      </c>
-      <c r="C44">
+      <c r="D44">
         <v>27400</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
       </c>
       <c r="E44">
         <v>27.4</v>
@@ -2015,16 +2017,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
         <v>78</v>
       </c>
-      <c r="B45">
-        <v>281</v>
-      </c>
-      <c r="C45">
+      <c r="D45">
         <v>28600</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
       </c>
       <c r="E45">
         <v>28.6</v>
@@ -2041,16 +2043,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>279</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
         <v>78</v>
       </c>
-      <c r="B46">
-        <v>279</v>
-      </c>
-      <c r="C46">
+      <c r="D46">
         <v>28700</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
       </c>
       <c r="E46">
         <v>28.7</v>
@@ -2067,16 +2069,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>278</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
         <v>78</v>
       </c>
-      <c r="B47">
-        <v>278</v>
-      </c>
-      <c r="C47">
+      <c r="D47">
         <v>24700</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
       </c>
       <c r="E47">
         <v>24.7</v>
@@ -2093,16 +2095,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>280</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
         <v>78</v>
       </c>
-      <c r="B48">
-        <v>280</v>
-      </c>
-      <c r="C48">
+      <c r="D48">
         <v>33600</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
       </c>
       <c r="E48">
         <v>33.6</v>
@@ -2119,16 +2121,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>276</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
         <v>78</v>
       </c>
-      <c r="B49">
-        <v>276</v>
-      </c>
-      <c r="C49">
+      <c r="D49">
         <v>28800</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
       </c>
       <c r="E49">
         <v>28.8</v>
@@ -2145,16 +2147,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>201</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
         <v>88</v>
       </c>
-      <c r="B50">
-        <v>201</v>
-      </c>
-      <c r="C50">
+      <c r="D50">
         <v>34400</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
       </c>
       <c r="E50">
         <v>34.4</v>
@@ -2171,16 +2173,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
         <v>88</v>
       </c>
-      <c r="B51">
-        <v>202</v>
-      </c>
-      <c r="C51">
+      <c r="D51">
         <v>35000</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
       </c>
       <c r="E51">
         <v>35</v>
@@ -2197,16 +2199,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>214</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
         <v>88</v>
       </c>
-      <c r="B52">
-        <v>214</v>
-      </c>
-      <c r="C52">
+      <c r="D52">
         <v>30200</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
       </c>
       <c r="E52">
         <v>30.2</v>
@@ -2223,16 +2225,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>2500</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
         <v>88</v>
       </c>
-      <c r="B53">
-        <v>2500</v>
-      </c>
-      <c r="C53">
+      <c r="D53">
         <v>31100</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
       </c>
       <c r="E53">
         <v>31.1</v>
@@ -2249,16 +2251,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
         <v>89</v>
       </c>
-      <c r="B54">
-        <v>203</v>
-      </c>
-      <c r="C54">
+      <c r="D54">
         <v>34500</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
       </c>
       <c r="E54">
         <v>34.5</v>
@@ -2275,16 +2277,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>204</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
         <v>89</v>
       </c>
-      <c r="B55">
-        <v>204</v>
-      </c>
-      <c r="C55">
+      <c r="D55">
         <v>29800</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
       </c>
       <c r="E55">
         <v>29.8</v>
@@ -2301,16 +2303,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
         <v>89</v>
       </c>
-      <c r="B56">
-        <v>207</v>
-      </c>
-      <c r="C56">
+      <c r="D56">
         <v>31700</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
       </c>
       <c r="E56">
         <v>31.7</v>
@@ -2327,16 +2329,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
         <v>89</v>
       </c>
-      <c r="B57">
-        <v>208</v>
-      </c>
-      <c r="C57">
+      <c r="D57">
         <v>36400</v>
-      </c>
-      <c r="D57" t="s">
-        <v>5</v>
       </c>
       <c r="E57">
         <v>36.4</v>
@@ -2353,16 +2355,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>209</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
         <v>89</v>
       </c>
-      <c r="B58">
-        <v>209</v>
-      </c>
-      <c r="C58">
+      <c r="D58">
         <v>30400</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
       </c>
       <c r="E58">
         <v>30.4</v>
@@ -2379,16 +2381,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>250</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
         <v>89</v>
       </c>
-      <c r="B59">
-        <v>250</v>
-      </c>
-      <c r="C59">
+      <c r="D59">
         <v>35500</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
       </c>
       <c r="E59">
         <v>35.5</v>
@@ -2405,16 +2407,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>298</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
         <v>83</v>
       </c>
-      <c r="B60">
-        <v>298</v>
-      </c>
-      <c r="C60">
+      <c r="D60">
         <v>26200</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
       </c>
       <c r="E60">
         <v>26.2</v>
@@ -2431,16 +2433,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>292</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
         <v>83</v>
       </c>
-      <c r="B61">
-        <v>292</v>
-      </c>
-      <c r="C61">
+      <c r="D61">
         <v>24800</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
       </c>
       <c r="E61">
         <v>24.8</v>
@@ -2457,16 +2459,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>293</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
         <v>83</v>
       </c>
-      <c r="B62">
-        <v>293</v>
-      </c>
-      <c r="C62">
+      <c r="D62">
         <v>29100</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
       </c>
       <c r="E62">
         <v>29.1</v>
@@ -2483,16 +2485,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>290</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
         <v>83</v>
       </c>
-      <c r="B63">
-        <v>290</v>
-      </c>
-      <c r="C63">
+      <c r="D63">
         <v>26800</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
       </c>
       <c r="E63">
         <v>26.8</v>
@@ -2509,16 +2511,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>297</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
         <v>83</v>
       </c>
-      <c r="B64">
-        <v>297</v>
-      </c>
-      <c r="C64">
+      <c r="D64">
         <v>29000</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
       </c>
       <c r="E64">
         <v>29</v>
@@ -2535,16 +2537,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>291</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
         <v>84</v>
       </c>
-      <c r="B65">
-        <v>291</v>
-      </c>
-      <c r="C65">
+      <c r="D65">
         <v>39400</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
       </c>
       <c r="E65">
         <v>39.4</v>
@@ -2561,16 +2563,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>294</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
         <v>84</v>
       </c>
-      <c r="B66">
-        <v>294</v>
-      </c>
-      <c r="C66">
+      <c r="D66">
         <v>38600</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
       </c>
       <c r="E66">
         <v>38.6</v>
@@ -2587,16 +2589,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>277</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
         <v>86</v>
       </c>
-      <c r="B67">
-        <v>277</v>
-      </c>
-      <c r="C67">
+      <c r="D67">
         <v>24700</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
       </c>
       <c r="E67">
         <v>24.7</v>
@@ -2613,16 +2615,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>300</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
         <v>86</v>
       </c>
-      <c r="B68">
-        <v>300</v>
-      </c>
-      <c r="C68">
+      <c r="D68">
         <v>29200</v>
-      </c>
-      <c r="D68" t="s">
-        <v>7</v>
       </c>
       <c r="E68">
         <v>29.2</v>
@@ -2639,16 +2641,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>281</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
         <v>86</v>
       </c>
-      <c r="B69">
-        <v>281</v>
-      </c>
-      <c r="C69">
+      <c r="D69">
         <v>29400</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
       </c>
       <c r="E69">
         <v>29.4</v>
@@ -2665,16 +2667,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>279</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
         <v>86</v>
       </c>
-      <c r="B70">
-        <v>279</v>
-      </c>
-      <c r="C70">
+      <c r="D70">
         <v>30300</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
       </c>
       <c r="E70">
         <v>30.3</v>
@@ -2691,16 +2693,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>278</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
         <v>86</v>
       </c>
-      <c r="B71">
-        <v>278</v>
-      </c>
-      <c r="C71">
+      <c r="D71">
         <v>26700</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
       </c>
       <c r="E71">
         <v>26.7</v>
@@ -2717,16 +2719,16 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>280</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
         <v>86</v>
       </c>
-      <c r="B72">
-        <v>280</v>
-      </c>
-      <c r="C72">
+      <c r="D72">
         <v>36800</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
       </c>
       <c r="E72">
         <v>36.799999999999997</v>
@@ -2743,16 +2745,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
+        <v>276</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
         <v>86</v>
       </c>
-      <c r="B73">
-        <v>276</v>
-      </c>
-      <c r="C73">
+      <c r="D73">
         <v>32100</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
       </c>
       <c r="E73">
         <v>32.1</v>
@@ -2769,16 +2771,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
         <v>96</v>
       </c>
-      <c r="B74">
-        <v>201</v>
-      </c>
-      <c r="C74">
+      <c r="D74">
         <v>37000</v>
-      </c>
-      <c r="D74" t="s">
-        <v>5</v>
       </c>
       <c r="E74">
         <v>37</v>
@@ -2795,16 +2797,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>202</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
         <v>96</v>
       </c>
-      <c r="B75">
-        <v>202</v>
-      </c>
-      <c r="C75">
+      <c r="D75">
         <v>38000</v>
-      </c>
-      <c r="D75" t="s">
-        <v>5</v>
       </c>
       <c r="E75">
         <v>38</v>
@@ -2821,16 +2823,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>214</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
         <v>96</v>
       </c>
-      <c r="B76">
-        <v>214</v>
-      </c>
-      <c r="C76">
+      <c r="D76">
         <v>32500</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
       </c>
       <c r="E76">
         <v>32.5</v>
@@ -2847,16 +2849,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>2500</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
         <v>96</v>
       </c>
-      <c r="B77">
-        <v>2500</v>
-      </c>
-      <c r="C77">
+      <c r="D77">
         <v>35200</v>
-      </c>
-      <c r="D77" t="s">
-        <v>5</v>
       </c>
       <c r="E77">
         <v>35.200000000000003</v>
@@ -2873,16 +2875,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
         <v>97</v>
       </c>
-      <c r="B78">
-        <v>203</v>
-      </c>
-      <c r="C78">
+      <c r="D78">
         <v>37100</v>
-      </c>
-      <c r="D78" t="s">
-        <v>5</v>
       </c>
       <c r="E78">
         <v>37.1</v>
@@ -2899,16 +2901,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>204</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
         <v>97</v>
       </c>
-      <c r="B79">
-        <v>204</v>
-      </c>
-      <c r="C79">
+      <c r="D79">
         <v>32000</v>
-      </c>
-      <c r="D79" t="s">
-        <v>5</v>
       </c>
       <c r="E79">
         <v>32</v>
@@ -2925,16 +2927,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>207</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
         <v>97</v>
       </c>
-      <c r="B80">
-        <v>207</v>
-      </c>
-      <c r="C80">
+      <c r="D80">
         <v>34200</v>
-      </c>
-      <c r="D80" t="s">
-        <v>5</v>
       </c>
       <c r="E80">
         <v>34.200000000000003</v>
@@ -2951,16 +2953,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>208</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
         <v>97</v>
       </c>
-      <c r="B81">
-        <v>208</v>
-      </c>
-      <c r="C81">
+      <c r="D81">
         <v>40300</v>
-      </c>
-      <c r="D81" t="s">
-        <v>5</v>
       </c>
       <c r="E81">
         <v>40.299999999999997</v>
@@ -2977,16 +2979,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>209</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
         <v>97</v>
       </c>
-      <c r="B82">
-        <v>209</v>
-      </c>
-      <c r="C82">
+      <c r="D82">
         <v>34300</v>
-      </c>
-      <c r="D82" t="s">
-        <v>5</v>
       </c>
       <c r="E82">
         <v>34.299999999999997</v>
@@ -3003,16 +3005,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>250</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
         <v>97</v>
       </c>
-      <c r="B83">
-        <v>250</v>
-      </c>
-      <c r="C83">
+      <c r="D83">
         <v>38400</v>
-      </c>
-      <c r="D83" t="s">
-        <v>5</v>
       </c>
       <c r="E83">
         <v>38.4</v>
@@ -3029,16 +3031,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
         <v>89</v>
       </c>
-      <c r="B84">
-        <v>298</v>
-      </c>
-      <c r="C84">
+      <c r="D84">
         <v>27400</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
       </c>
       <c r="E84">
         <v>27.4</v>
@@ -3055,16 +3057,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
+        <v>292</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
         <v>89</v>
       </c>
-      <c r="B85">
-        <v>292</v>
-      </c>
-      <c r="C85">
+      <c r="D85">
         <v>25600</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
       </c>
       <c r="E85">
         <v>25.6</v>
@@ -3081,16 +3083,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>293</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
         <v>89</v>
       </c>
-      <c r="B86">
-        <v>293</v>
-      </c>
-      <c r="C86">
+      <c r="D86">
         <v>30900</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
       </c>
       <c r="E86">
         <v>30.9</v>
@@ -3107,16 +3109,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>290</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
         <v>89</v>
       </c>
-      <c r="B87">
-        <v>290</v>
-      </c>
-      <c r="C87">
+      <c r="D87">
         <v>28500</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
       </c>
       <c r="E87">
         <v>28.5</v>
@@ -3133,16 +3135,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>297</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
         <v>89</v>
       </c>
-      <c r="B88">
-        <v>297</v>
-      </c>
-      <c r="C88">
+      <c r="D88">
         <v>31100</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
       </c>
       <c r="E88">
         <v>31.1</v>
@@ -3159,16 +3161,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>291</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
         <v>90</v>
       </c>
-      <c r="B89">
-        <v>291</v>
-      </c>
-      <c r="C89">
+      <c r="D89">
         <v>41200</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
       </c>
       <c r="E89">
         <v>41.2</v>
@@ -3185,16 +3187,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>294</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
         <v>90</v>
       </c>
-      <c r="B90">
-        <v>294</v>
-      </c>
-      <c r="C90">
+      <c r="D90">
         <v>41300</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
       </c>
       <c r="E90">
         <v>41.3</v>
@@ -3211,16 +3213,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
+        <v>277</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
         <v>92</v>
       </c>
-      <c r="B91">
-        <v>277</v>
-      </c>
-      <c r="C91">
+      <c r="D91">
         <v>27600</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
       </c>
       <c r="E91">
         <v>27.6</v>
@@ -3237,16 +3239,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>300</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
         <v>92</v>
       </c>
-      <c r="B92">
-        <v>300</v>
-      </c>
-      <c r="C92">
+      <c r="D92">
         <v>31800</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
       </c>
       <c r="E92">
         <v>31.8</v>
@@ -3263,16 +3265,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
+        <v>281</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>281</v>
-      </c>
-      <c r="C93">
+      <c r="D93">
         <v>32900</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
       </c>
       <c r="E93">
         <v>32.9</v>
@@ -3289,16 +3291,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>279</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>279</v>
-      </c>
-      <c r="C94">
+      <c r="D94">
         <v>33700</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
       </c>
       <c r="E94">
         <v>33.700000000000003</v>
@@ -3315,16 +3317,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>278</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
         <v>92</v>
       </c>
-      <c r="B95">
-        <v>278</v>
-      </c>
-      <c r="C95">
+      <c r="D95">
         <v>30300</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
       </c>
       <c r="E95">
         <v>30.3</v>
@@ -3341,16 +3343,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>280</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
         <v>92</v>
       </c>
-      <c r="B96">
-        <v>280</v>
-      </c>
-      <c r="C96">
+      <c r="D96">
         <v>39200</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
       </c>
       <c r="E96">
         <v>39.200000000000003</v>
@@ -3367,16 +3369,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>276</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
         <v>92</v>
       </c>
-      <c r="B97">
-        <v>276</v>
-      </c>
-      <c r="C97">
+      <c r="D97">
         <v>33800</v>
-      </c>
-      <c r="D97" t="s">
-        <v>7</v>
       </c>
       <c r="E97">
         <v>33.799999999999997</v>
@@ -3393,16 +3395,16 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
         <v>102</v>
       </c>
-      <c r="B98">
-        <v>201</v>
-      </c>
-      <c r="C98">
+      <c r="D98">
         <v>38500</v>
-      </c>
-      <c r="D98" t="s">
-        <v>5</v>
       </c>
       <c r="E98">
         <v>38.5</v>
@@ -3419,16 +3421,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
         <v>102</v>
       </c>
-      <c r="B99">
-        <v>202</v>
-      </c>
-      <c r="C99">
+      <c r="D99">
         <v>39500</v>
-      </c>
-      <c r="D99" t="s">
-        <v>5</v>
       </c>
       <c r="E99">
         <v>39.5</v>
@@ -3445,16 +3447,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
+        <v>214</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
         <v>102</v>
       </c>
-      <c r="B100">
-        <v>214</v>
-      </c>
-      <c r="C100">
+      <c r="D100">
         <v>33300</v>
-      </c>
-      <c r="D100" t="s">
-        <v>5</v>
       </c>
       <c r="E100">
         <v>33.299999999999997</v>
@@ -3471,16 +3473,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
+        <v>2500</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
         <v>102</v>
       </c>
-      <c r="B101">
-        <v>2500</v>
-      </c>
-      <c r="C101">
+      <c r="D101">
         <v>36500</v>
-      </c>
-      <c r="D101" t="s">
-        <v>5</v>
       </c>
       <c r="E101">
         <v>36.5</v>
@@ -3497,16 +3499,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
         <v>103</v>
       </c>
-      <c r="B102">
-        <v>203</v>
-      </c>
-      <c r="C102">
+      <c r="D102">
         <v>38300</v>
-      </c>
-      <c r="D102" t="s">
-        <v>5</v>
       </c>
       <c r="E102">
         <v>38.299999999999997</v>
@@ -3523,16 +3525,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
         <v>103</v>
       </c>
-      <c r="B103">
-        <v>204</v>
-      </c>
-      <c r="C103">
+      <c r="D103">
         <v>32600</v>
-      </c>
-      <c r="D103" t="s">
-        <v>5</v>
       </c>
       <c r="E103">
         <v>32.6</v>
@@ -3549,16 +3551,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
         <v>103</v>
       </c>
-      <c r="B104">
-        <v>207</v>
-      </c>
-      <c r="C104">
+      <c r="D104">
         <v>35000</v>
-      </c>
-      <c r="D104" t="s">
-        <v>5</v>
       </c>
       <c r="E104">
         <v>35</v>
@@ -3575,16 +3577,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
         <v>103</v>
       </c>
-      <c r="B105">
-        <v>208</v>
-      </c>
-      <c r="C105">
+      <c r="D105">
         <v>42400</v>
-      </c>
-      <c r="D105" t="s">
-        <v>5</v>
       </c>
       <c r="E105">
         <v>42.4</v>
@@ -3601,16 +3603,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
         <v>103</v>
       </c>
-      <c r="B106">
-        <v>209</v>
-      </c>
-      <c r="C106">
+      <c r="D106">
         <v>36000</v>
-      </c>
-      <c r="D106" t="s">
-        <v>5</v>
       </c>
       <c r="E106">
         <v>36</v>
@@ -3627,16 +3629,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
+        <v>250</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
         <v>103</v>
       </c>
-      <c r="B107">
-        <v>250</v>
-      </c>
-      <c r="C107">
+      <c r="D107">
         <v>39400</v>
-      </c>
-      <c r="D107" t="s">
-        <v>5</v>
       </c>
       <c r="E107">
         <v>39.4</v>
@@ -3653,16 +3655,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
+        <v>298</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
         <v>96</v>
       </c>
-      <c r="B108">
-        <v>298</v>
-      </c>
-      <c r="C108">
+      <c r="D108">
         <v>28900</v>
-      </c>
-      <c r="D108" t="s">
-        <v>7</v>
       </c>
       <c r="E108">
         <v>28.9</v>
@@ -3679,16 +3681,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
+        <v>292</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
         <v>96</v>
       </c>
-      <c r="B109">
-        <v>292</v>
-      </c>
-      <c r="C109">
+      <c r="D109">
         <v>27300</v>
-      </c>
-      <c r="D109" t="s">
-        <v>7</v>
       </c>
       <c r="E109">
         <v>27.3</v>
@@ -3705,16 +3707,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
+        <v>293</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
         <v>96</v>
       </c>
-      <c r="B110">
-        <v>293</v>
-      </c>
-      <c r="C110">
+      <c r="D110">
         <v>32700</v>
-      </c>
-      <c r="D110" t="s">
-        <v>7</v>
       </c>
       <c r="E110">
         <v>32.700000000000003</v>
@@ -3731,16 +3733,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
+        <v>290</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
         <v>96</v>
       </c>
-      <c r="B111">
-        <v>290</v>
-      </c>
-      <c r="C111">
+      <c r="D111">
         <v>29400</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
       </c>
       <c r="E111">
         <v>29.4</v>
@@ -3757,16 +3759,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
+        <v>297</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
         <v>96</v>
       </c>
-      <c r="B112">
-        <v>297</v>
-      </c>
-      <c r="C112">
+      <c r="D112">
         <v>33200</v>
-      </c>
-      <c r="D112" t="s">
-        <v>7</v>
       </c>
       <c r="E112">
         <v>33.200000000000003</v>
@@ -3783,16 +3785,16 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
+        <v>291</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
         <v>97</v>
       </c>
-      <c r="B113">
-        <v>291</v>
-      </c>
-      <c r="C113">
+      <c r="D113">
         <v>42700</v>
-      </c>
-      <c r="D113" t="s">
-        <v>7</v>
       </c>
       <c r="E113">
         <v>42.7</v>
@@ -3809,16 +3811,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>294</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
         <v>97</v>
       </c>
-      <c r="B114">
-        <v>294</v>
-      </c>
-      <c r="C114">
+      <c r="D114">
         <v>43300</v>
-      </c>
-      <c r="D114" t="s">
-        <v>7</v>
       </c>
       <c r="E114">
         <v>43.3</v>
@@ -3835,16 +3837,16 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
+        <v>277</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
         <v>99</v>
       </c>
-      <c r="B115">
-        <v>277</v>
-      </c>
-      <c r="C115">
+      <c r="D115">
         <v>29100</v>
-      </c>
-      <c r="D115" t="s">
-        <v>7</v>
       </c>
       <c r="E115">
         <v>29.1</v>
@@ -3861,16 +3863,16 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
+        <v>300</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
         <v>99</v>
       </c>
-      <c r="B116">
-        <v>300</v>
-      </c>
-      <c r="C116">
+      <c r="D116">
         <v>33100</v>
-      </c>
-      <c r="D116" t="s">
-        <v>7</v>
       </c>
       <c r="E116">
         <v>33.1</v>
@@ -3887,16 +3889,16 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
+        <v>281</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
         <v>99</v>
       </c>
-      <c r="B117">
-        <v>281</v>
-      </c>
-      <c r="C117">
+      <c r="D117">
         <v>33900</v>
-      </c>
-      <c r="D117" t="s">
-        <v>7</v>
       </c>
       <c r="E117">
         <v>33.9</v>
@@ -3913,16 +3915,16 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>279</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
         <v>99</v>
       </c>
-      <c r="B118">
-        <v>279</v>
-      </c>
-      <c r="C118">
+      <c r="D118">
         <v>35700</v>
-      </c>
-      <c r="D118" t="s">
-        <v>7</v>
       </c>
       <c r="E118">
         <v>35.700000000000003</v>
@@ -3939,16 +3941,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
+        <v>278</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
         <v>99</v>
       </c>
-      <c r="B119">
-        <v>278</v>
-      </c>
-      <c r="C119">
+      <c r="D119">
         <v>31500</v>
-      </c>
-      <c r="D119" t="s">
-        <v>7</v>
       </c>
       <c r="E119">
         <v>31.5</v>
@@ -3965,16 +3967,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
+        <v>280</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
         <v>99</v>
       </c>
-      <c r="B120">
-        <v>280</v>
-      </c>
-      <c r="C120">
+      <c r="D120">
         <v>41000</v>
-      </c>
-      <c r="D120" t="s">
-        <v>7</v>
       </c>
       <c r="E120">
         <v>41</v>
@@ -3991,16 +3993,16 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
+        <v>276</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
         <v>99</v>
       </c>
-      <c r="B121">
-        <v>276</v>
-      </c>
-      <c r="C121">
+      <c r="D121">
         <v>36000</v>
-      </c>
-      <c r="D121" t="s">
-        <v>7</v>
       </c>
       <c r="E121">
         <v>36</v>
@@ -4017,16 +4019,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
+        <v>201</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
         <v>109</v>
       </c>
-      <c r="B122">
-        <v>201</v>
-      </c>
-      <c r="C122">
+      <c r="D122">
         <v>40800</v>
-      </c>
-      <c r="D122" t="s">
-        <v>5</v>
       </c>
       <c r="E122">
         <v>40.799999999999997</v>
@@ -4043,16 +4045,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
+        <v>202</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
         <v>109</v>
       </c>
-      <c r="B123">
-        <v>202</v>
-      </c>
-      <c r="C123">
+      <c r="D123">
         <v>41800</v>
-      </c>
-      <c r="D123" t="s">
-        <v>5</v>
       </c>
       <c r="E123">
         <v>41.8</v>
@@ -4069,16 +4071,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
+        <v>214</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124">
         <v>109</v>
       </c>
-      <c r="B124">
-        <v>214</v>
-      </c>
-      <c r="C124">
+      <c r="D124">
         <v>36100</v>
-      </c>
-      <c r="D124" t="s">
-        <v>5</v>
       </c>
       <c r="E124">
         <v>36.1</v>
@@ -4095,16 +4097,16 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
+        <v>2500</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
         <v>109</v>
       </c>
-      <c r="B125">
-        <v>2500</v>
-      </c>
-      <c r="C125">
+      <c r="D125">
         <v>37600</v>
-      </c>
-      <c r="D125" t="s">
-        <v>5</v>
       </c>
       <c r="E125">
         <v>37.6</v>
@@ -4121,16 +4123,16 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
+        <v>203</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
         <v>110</v>
       </c>
-      <c r="B126">
-        <v>203</v>
-      </c>
-      <c r="C126">
+      <c r="D126">
         <v>41200</v>
-      </c>
-      <c r="D126" t="s">
-        <v>5</v>
       </c>
       <c r="E126">
         <v>41.2</v>
@@ -4147,16 +4149,16 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
+        <v>204</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
         <v>110</v>
       </c>
-      <c r="B127">
-        <v>204</v>
-      </c>
-      <c r="C127">
+      <c r="D127">
         <v>34300</v>
-      </c>
-      <c r="D127" t="s">
-        <v>5</v>
       </c>
       <c r="E127">
         <v>34.299999999999997</v>
@@ -4173,16 +4175,16 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
+        <v>207</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
         <v>110</v>
       </c>
-      <c r="B128">
-        <v>207</v>
-      </c>
-      <c r="C128">
+      <c r="D128">
         <v>37300</v>
-      </c>
-      <c r="D128" t="s">
-        <v>5</v>
       </c>
       <c r="E128">
         <v>37.299999999999997</v>
@@ -4199,16 +4201,16 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
+        <v>208</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
         <v>110</v>
       </c>
-      <c r="B129">
-        <v>208</v>
-      </c>
-      <c r="C129">
+      <c r="D129">
         <v>43400</v>
-      </c>
-      <c r="D129" t="s">
-        <v>5</v>
       </c>
       <c r="E129">
         <v>43.4</v>
@@ -4225,16 +4227,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
+        <v>209</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
         <v>110</v>
       </c>
-      <c r="B130">
-        <v>209</v>
-      </c>
-      <c r="C130">
+      <c r="D130">
         <v>38300</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
       </c>
       <c r="E130">
         <v>38.299999999999997</v>
@@ -4251,16 +4253,16 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
+        <v>250</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
         <v>110</v>
       </c>
-      <c r="B131">
-        <v>250</v>
-      </c>
-      <c r="C131">
+      <c r="D131">
         <v>42000</v>
-      </c>
-      <c r="D131" t="s">
-        <v>5</v>
       </c>
       <c r="E131">
         <v>42</v>
@@ -4277,16 +4279,16 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
+        <v>298</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
         <v>103</v>
       </c>
-      <c r="B132">
-        <v>298</v>
-      </c>
-      <c r="C132">
+      <c r="D132">
         <v>30600</v>
-      </c>
-      <c r="D132" t="s">
-        <v>7</v>
       </c>
       <c r="E132">
         <v>30.6</v>
@@ -4303,16 +4305,16 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
+        <v>292</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
         <v>103</v>
       </c>
-      <c r="B133">
-        <v>292</v>
-      </c>
-      <c r="C133">
+      <c r="D133">
         <v>29000</v>
-      </c>
-      <c r="D133" t="s">
-        <v>7</v>
       </c>
       <c r="E133">
         <v>29</v>
@@ -4329,16 +4331,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
+        <v>293</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
         <v>103</v>
       </c>
-      <c r="B134">
-        <v>293</v>
-      </c>
-      <c r="C134">
+      <c r="D134">
         <v>34800</v>
-      </c>
-      <c r="D134" t="s">
-        <v>7</v>
       </c>
       <c r="E134">
         <v>34.799999999999997</v>
@@ -4355,16 +4357,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
+        <v>290</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
         <v>103</v>
       </c>
-      <c r="B135">
-        <v>290</v>
-      </c>
-      <c r="C135">
+      <c r="D135">
         <v>31000</v>
-      </c>
-      <c r="D135" t="s">
-        <v>7</v>
       </c>
       <c r="E135">
         <v>31</v>
@@ -4381,16 +4383,16 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
+        <v>297</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
         <v>103</v>
       </c>
-      <c r="B136">
-        <v>297</v>
-      </c>
-      <c r="C136">
+      <c r="D136">
         <v>34600</v>
-      </c>
-      <c r="D136" t="s">
-        <v>7</v>
       </c>
       <c r="E136">
         <v>34.6</v>
@@ -4407,16 +4409,16 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
+        <v>291</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
         <v>104</v>
       </c>
-      <c r="B137">
-        <v>291</v>
-      </c>
-      <c r="C137">
+      <c r="D137">
         <v>44500</v>
-      </c>
-      <c r="D137" t="s">
-        <v>7</v>
       </c>
       <c r="E137">
         <v>44.5</v>
@@ -4433,16 +4435,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
+        <v>294</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
         <v>104</v>
       </c>
-      <c r="B138">
-        <v>294</v>
-      </c>
-      <c r="C138">
+      <c r="D138">
         <v>45500</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
       </c>
       <c r="E138">
         <v>45.5</v>
@@ -4459,16 +4461,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
+        <v>277</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
         <v>106</v>
       </c>
-      <c r="B139">
-        <v>277</v>
-      </c>
-      <c r="C139">
+      <c r="D139">
         <v>29800</v>
-      </c>
-      <c r="D139" t="s">
-        <v>7</v>
       </c>
       <c r="E139">
         <v>29.8</v>
@@ -4485,16 +4487,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
+        <v>300</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
         <v>106</v>
       </c>
-      <c r="B140">
-        <v>300</v>
-      </c>
-      <c r="C140">
+      <c r="D140">
         <v>35700</v>
-      </c>
-      <c r="D140" t="s">
-        <v>7</v>
       </c>
       <c r="E140">
         <v>35.700000000000003</v>
@@ -4511,16 +4513,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
+        <v>281</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
         <v>106</v>
       </c>
-      <c r="B141">
-        <v>281</v>
-      </c>
-      <c r="C141">
+      <c r="D141">
         <v>34900</v>
-      </c>
-      <c r="D141" t="s">
-        <v>7</v>
       </c>
       <c r="E141">
         <v>34.9</v>
@@ -4537,16 +4539,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
+        <v>279</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
         <v>106</v>
       </c>
-      <c r="B142">
-        <v>279</v>
-      </c>
-      <c r="C142">
+      <c r="D142">
         <v>36100</v>
-      </c>
-      <c r="D142" t="s">
-        <v>7</v>
       </c>
       <c r="E142">
         <v>36.1</v>
@@ -4563,16 +4565,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
+        <v>278</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
         <v>106</v>
       </c>
-      <c r="B143">
-        <v>278</v>
-      </c>
-      <c r="C143">
+      <c r="D143">
         <v>34100</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
       </c>
       <c r="E143">
         <v>34.1</v>
@@ -4589,16 +4591,16 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
+        <v>280</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
         <v>106</v>
       </c>
-      <c r="B144">
-        <v>280</v>
-      </c>
-      <c r="C144">
+      <c r="D144">
         <v>41600</v>
-      </c>
-      <c r="D144" t="s">
-        <v>7</v>
       </c>
       <c r="E144">
         <v>41.6</v>
@@ -4615,16 +4617,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
+        <v>276</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
         <v>106</v>
       </c>
-      <c r="B145">
-        <v>276</v>
-      </c>
-      <c r="C145">
+      <c r="D145">
         <v>38000</v>
-      </c>
-      <c r="D145" t="s">
-        <v>7</v>
       </c>
       <c r="E145">
         <v>38</v>
@@ -4641,16 +4643,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
+        <v>201</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
         <v>116</v>
       </c>
-      <c r="B146">
-        <v>201</v>
-      </c>
-      <c r="C146">
+      <c r="D146">
         <v>41700</v>
-      </c>
-      <c r="D146" t="s">
-        <v>5</v>
       </c>
       <c r="E146">
         <v>41.7</v>
@@ -4667,16 +4669,16 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
+        <v>202</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
         <v>116</v>
       </c>
-      <c r="B147">
-        <v>202</v>
-      </c>
-      <c r="C147">
+      <c r="D147">
         <v>41200</v>
-      </c>
-      <c r="D147" t="s">
-        <v>5</v>
       </c>
       <c r="E147">
         <v>41.2</v>
@@ -4693,16 +4695,16 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
+        <v>214</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
         <v>116</v>
       </c>
-      <c r="B148">
-        <v>214</v>
-      </c>
-      <c r="C148">
+      <c r="D148">
         <v>37300</v>
-      </c>
-      <c r="D148" t="s">
-        <v>5</v>
       </c>
       <c r="E148">
         <v>37.299999999999997</v>
@@ -4719,16 +4721,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
+        <v>2500</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
         <v>116</v>
       </c>
-      <c r="B149">
-        <v>2500</v>
-      </c>
-      <c r="C149">
+      <c r="D149">
         <v>41000</v>
-      </c>
-      <c r="D149" t="s">
-        <v>5</v>
       </c>
       <c r="E149">
         <v>41</v>
@@ -4745,16 +4747,16 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
+        <v>203</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150">
         <v>117</v>
       </c>
-      <c r="B150">
-        <v>203</v>
-      </c>
-      <c r="C150">
+      <c r="D150">
         <v>43000</v>
-      </c>
-      <c r="D150" t="s">
-        <v>5</v>
       </c>
       <c r="E150">
         <v>43</v>
@@ -4771,16 +4773,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
+        <v>204</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
         <v>117</v>
       </c>
-      <c r="B151">
-        <v>204</v>
-      </c>
-      <c r="C151">
+      <c r="D151">
         <v>34700</v>
-      </c>
-      <c r="D151" t="s">
-        <v>5</v>
       </c>
       <c r="E151">
         <v>34.700000000000003</v>
@@ -4797,16 +4799,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
+        <v>207</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
         <v>117</v>
       </c>
-      <c r="B152">
-        <v>207</v>
-      </c>
-      <c r="C152">
+      <c r="D152">
         <v>38100</v>
-      </c>
-      <c r="D152" t="s">
-        <v>5</v>
       </c>
       <c r="E152">
         <v>38.1</v>
@@ -4823,16 +4825,16 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
+        <v>208</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
         <v>117</v>
       </c>
-      <c r="B153">
-        <v>208</v>
-      </c>
-      <c r="C153">
+      <c r="D153">
         <v>45800</v>
-      </c>
-      <c r="D153" t="s">
-        <v>5</v>
       </c>
       <c r="E153">
         <v>45.8</v>
@@ -4849,16 +4851,16 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
+        <v>209</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
         <v>117</v>
       </c>
-      <c r="B154">
-        <v>209</v>
-      </c>
-      <c r="C154">
+      <c r="D154">
         <v>40900</v>
-      </c>
-      <c r="D154" t="s">
-        <v>5</v>
       </c>
       <c r="E154">
         <v>40.9</v>
@@ -4875,16 +4877,16 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
+        <v>250</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
         <v>117</v>
       </c>
-      <c r="B155">
-        <v>250</v>
-      </c>
-      <c r="C155">
+      <c r="D155">
         <v>44100</v>
-      </c>
-      <c r="D155" t="s">
-        <v>5</v>
       </c>
       <c r="E155">
         <v>44.1</v>
@@ -4901,16 +4903,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
+        <v>298</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
         <v>110</v>
       </c>
-      <c r="B156">
-        <v>298</v>
-      </c>
-      <c r="C156">
+      <c r="D156">
         <v>32700</v>
-      </c>
-      <c r="D156" t="s">
-        <v>7</v>
       </c>
       <c r="E156">
         <v>32.700000000000003</v>
@@ -4927,16 +4929,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
+        <v>292</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
         <v>110</v>
       </c>
-      <c r="B157">
-        <v>292</v>
-      </c>
-      <c r="C157">
+      <c r="D157">
         <v>31400</v>
-      </c>
-      <c r="D157" t="s">
-        <v>7</v>
       </c>
       <c r="E157">
         <v>31.4</v>
@@ -4953,16 +4955,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
+        <v>293</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
         <v>110</v>
       </c>
-      <c r="B158">
-        <v>293</v>
-      </c>
-      <c r="C158">
+      <c r="D158">
         <v>37000</v>
-      </c>
-      <c r="D158" t="s">
-        <v>7</v>
       </c>
       <c r="E158">
         <v>37</v>
@@ -4979,16 +4981,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
+        <v>290</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
         <v>110</v>
       </c>
-      <c r="B159">
-        <v>290</v>
-      </c>
-      <c r="C159">
+      <c r="D159">
         <v>33300</v>
-      </c>
-      <c r="D159" t="s">
-        <v>7</v>
       </c>
       <c r="E159">
         <v>33.299999999999997</v>
@@ -5005,16 +5007,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
+        <v>297</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
         <v>110</v>
       </c>
-      <c r="B160">
-        <v>297</v>
-      </c>
-      <c r="C160">
+      <c r="D160">
         <v>36200</v>
-      </c>
-      <c r="D160" t="s">
-        <v>7</v>
       </c>
       <c r="E160">
         <v>36.200000000000003</v>
@@ -5031,16 +5033,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
+        <v>291</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
         <v>111</v>
       </c>
-      <c r="B161">
-        <v>291</v>
-      </c>
-      <c r="C161">
+      <c r="D161">
         <v>45000</v>
-      </c>
-      <c r="D161" t="s">
-        <v>7</v>
       </c>
       <c r="E161">
         <v>45</v>
@@ -5057,16 +5059,16 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
+        <v>294</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
         <v>111</v>
       </c>
-      <c r="B162">
-        <v>294</v>
-      </c>
-      <c r="C162">
+      <c r="D162">
         <v>46100</v>
-      </c>
-      <c r="D162" t="s">
-        <v>7</v>
       </c>
       <c r="E162">
         <v>46.1</v>
@@ -5083,16 +5085,16 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
+        <v>277</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
         <v>113</v>
       </c>
-      <c r="B163">
-        <v>277</v>
-      </c>
-      <c r="C163">
+      <c r="D163">
         <v>33000</v>
-      </c>
-      <c r="D163" t="s">
-        <v>7</v>
       </c>
       <c r="E163">
         <v>33</v>
@@ -5109,16 +5111,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
+        <v>300</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
         <v>113</v>
       </c>
-      <c r="B164">
-        <v>300</v>
-      </c>
-      <c r="C164">
+      <c r="D164">
         <v>38000</v>
-      </c>
-      <c r="D164" t="s">
-        <v>7</v>
       </c>
       <c r="E164">
         <v>38</v>
@@ -5135,16 +5137,16 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
+        <v>281</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
         <v>113</v>
       </c>
-      <c r="B165">
-        <v>281</v>
-      </c>
-      <c r="C165">
+      <c r="D165">
         <v>38300</v>
-      </c>
-      <c r="D165" t="s">
-        <v>7</v>
       </c>
       <c r="E165">
         <v>38.299999999999997</v>
@@ -5161,16 +5163,16 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
+        <v>279</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
         <v>113</v>
       </c>
-      <c r="B166">
-        <v>279</v>
-      </c>
-      <c r="C166">
+      <c r="D166">
         <v>39000</v>
-      </c>
-      <c r="D166" t="s">
-        <v>7</v>
       </c>
       <c r="E166">
         <v>39</v>
@@ -5187,16 +5189,16 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
+        <v>278</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
         <v>113</v>
       </c>
-      <c r="B167">
-        <v>278</v>
-      </c>
-      <c r="C167">
+      <c r="D167">
         <v>36800</v>
-      </c>
-      <c r="D167" t="s">
-        <v>7</v>
       </c>
       <c r="E167">
         <v>36.799999999999997</v>
@@ -5213,16 +5215,16 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
+        <v>280</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
         <v>113</v>
       </c>
-      <c r="B168">
-        <v>280</v>
-      </c>
-      <c r="C168">
+      <c r="D168">
         <v>43100</v>
-      </c>
-      <c r="D168" t="s">
-        <v>7</v>
       </c>
       <c r="E168">
         <v>43.1</v>
@@ -5239,16 +5241,16 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
+        <v>276</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
         <v>113</v>
       </c>
-      <c r="B169">
-        <v>276</v>
-      </c>
-      <c r="C169">
+      <c r="D169">
         <v>40000</v>
-      </c>
-      <c r="D169" t="s">
-        <v>7</v>
       </c>
       <c r="E169">
         <v>40</v>
@@ -5265,16 +5267,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
+        <v>201</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170">
         <v>123</v>
       </c>
-      <c r="B170">
-        <v>201</v>
-      </c>
-      <c r="C170">
+      <c r="D170">
         <v>43400</v>
-      </c>
-      <c r="D170" t="s">
-        <v>5</v>
       </c>
       <c r="E170">
         <v>43.4</v>
@@ -5291,16 +5293,16 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
+        <v>202</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171">
         <v>123</v>
       </c>
-      <c r="B171">
-        <v>202</v>
-      </c>
-      <c r="C171">
+      <c r="D171">
         <v>43100</v>
-      </c>
-      <c r="D171" t="s">
-        <v>5</v>
       </c>
       <c r="E171">
         <v>43.1</v>
@@ -5317,16 +5319,16 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
+        <v>214</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
         <v>123</v>
       </c>
-      <c r="B172">
-        <v>214</v>
-      </c>
-      <c r="C172">
+      <c r="D172">
         <v>40500</v>
-      </c>
-      <c r="D172" t="s">
-        <v>5</v>
       </c>
       <c r="E172">
         <v>40.5</v>
@@ -5343,16 +5345,16 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
+        <v>2500</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173">
         <v>123</v>
       </c>
-      <c r="B173">
-        <v>2500</v>
-      </c>
-      <c r="C173">
+      <c r="D173">
         <v>44500</v>
-      </c>
-      <c r="D173" t="s">
-        <v>5</v>
       </c>
       <c r="E173">
         <v>44.5</v>
@@ -5369,16 +5371,16 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
+        <v>203</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174">
         <v>124</v>
       </c>
-      <c r="B174">
-        <v>203</v>
-      </c>
-      <c r="C174">
+      <c r="D174">
         <v>45000</v>
-      </c>
-      <c r="D174" t="s">
-        <v>5</v>
       </c>
       <c r="E174">
         <v>45</v>
@@ -5395,16 +5397,16 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
+        <v>204</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
         <v>124</v>
       </c>
-      <c r="B175">
-        <v>204</v>
-      </c>
-      <c r="C175">
+      <c r="D175">
         <v>37800</v>
-      </c>
-      <c r="D175" t="s">
-        <v>5</v>
       </c>
       <c r="E175">
         <v>37.799999999999997</v>
@@ -5421,16 +5423,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
+        <v>207</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176">
         <v>124</v>
       </c>
-      <c r="B176">
-        <v>207</v>
-      </c>
-      <c r="C176">
+      <c r="D176">
         <v>39900</v>
-      </c>
-      <c r="D176" t="s">
-        <v>5</v>
       </c>
       <c r="E176">
         <v>39.9</v>
@@ -5447,16 +5449,16 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
+        <v>208</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177">
         <v>124</v>
       </c>
-      <c r="B177">
-        <v>208</v>
-      </c>
-      <c r="C177">
+      <c r="D177">
         <v>47800</v>
-      </c>
-      <c r="D177" t="s">
-        <v>5</v>
       </c>
       <c r="E177">
         <v>47.8</v>
@@ -5473,16 +5475,16 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
+        <v>209</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178">
         <v>124</v>
       </c>
-      <c r="B178">
-        <v>209</v>
-      </c>
-      <c r="C178">
+      <c r="D178">
         <v>44300</v>
-      </c>
-      <c r="D178" t="s">
-        <v>5</v>
       </c>
       <c r="E178">
         <v>44.3</v>
@@ -5499,16 +5501,16 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
+        <v>250</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
         <v>124</v>
       </c>
-      <c r="B179">
-        <v>250</v>
-      </c>
-      <c r="C179">
+      <c r="D179">
         <v>46900</v>
-      </c>
-      <c r="D179" t="s">
-        <v>5</v>
       </c>
       <c r="E179">
         <v>46.9</v>
@@ -5525,16 +5527,16 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
+        <v>298</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
         <v>117</v>
       </c>
-      <c r="B180">
-        <v>298</v>
-      </c>
-      <c r="C180">
+      <c r="D180">
         <v>33300</v>
-      </c>
-      <c r="D180" t="s">
-        <v>7</v>
       </c>
       <c r="E180">
         <v>33.299999999999997</v>
@@ -5551,16 +5553,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
+        <v>292</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
         <v>117</v>
       </c>
-      <c r="B181">
-        <v>292</v>
-      </c>
-      <c r="C181">
+      <c r="D181">
         <v>32200</v>
-      </c>
-      <c r="D181" t="s">
-        <v>7</v>
       </c>
       <c r="E181">
         <v>32.200000000000003</v>
@@ -5577,16 +5579,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
+        <v>293</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
         <v>117</v>
       </c>
-      <c r="B182">
-        <v>293</v>
-      </c>
-      <c r="C182">
+      <c r="D182">
         <v>37200</v>
-      </c>
-      <c r="D182" t="s">
-        <v>7</v>
       </c>
       <c r="E182">
         <v>37.200000000000003</v>
@@ -5603,16 +5605,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
+        <v>290</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
         <v>117</v>
       </c>
-      <c r="B183">
-        <v>290</v>
-      </c>
-      <c r="C183">
+      <c r="D183">
         <v>33800</v>
-      </c>
-      <c r="D183" t="s">
-        <v>7</v>
       </c>
       <c r="E183">
         <v>33.799999999999997</v>
@@ -5629,16 +5631,16 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
+        <v>297</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
         <v>117</v>
       </c>
-      <c r="B184">
-        <v>297</v>
-      </c>
-      <c r="C184">
+      <c r="D184">
         <v>37300</v>
-      </c>
-      <c r="D184" t="s">
-        <v>7</v>
       </c>
       <c r="E184">
         <v>37.299999999999997</v>
@@ -5655,16 +5657,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
+        <v>291</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
         <v>118</v>
       </c>
-      <c r="B185">
-        <v>291</v>
-      </c>
-      <c r="C185">
+      <c r="D185">
         <v>45700</v>
-      </c>
-      <c r="D185" t="s">
-        <v>7</v>
       </c>
       <c r="E185">
         <v>45.7</v>
@@ -5681,16 +5683,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
+        <v>294</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186">
         <v>118</v>
       </c>
-      <c r="B186">
-        <v>294</v>
-      </c>
-      <c r="C186">
+      <c r="D186">
         <v>46800</v>
-      </c>
-      <c r="D186" t="s">
-        <v>7</v>
       </c>
       <c r="E186">
         <v>46.8</v>
@@ -5707,16 +5709,16 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
+        <v>277</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
         <v>120</v>
       </c>
-      <c r="B187">
-        <v>277</v>
-      </c>
-      <c r="C187">
+      <c r="D187">
         <v>34200</v>
-      </c>
-      <c r="D187" t="s">
-        <v>7</v>
       </c>
       <c r="E187">
         <v>34.200000000000003</v>
@@ -5733,16 +5735,16 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
+        <v>300</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188">
         <v>120</v>
       </c>
-      <c r="B188">
-        <v>300</v>
-      </c>
-      <c r="C188">
+      <c r="D188">
         <v>38100</v>
-      </c>
-      <c r="D188" t="s">
-        <v>7</v>
       </c>
       <c r="E188">
         <v>38.1</v>
@@ -5759,16 +5761,16 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
+        <v>281</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
         <v>120</v>
       </c>
-      <c r="B189">
-        <v>281</v>
-      </c>
-      <c r="C189">
+      <c r="D189">
         <v>39200</v>
-      </c>
-      <c r="D189" t="s">
-        <v>7</v>
       </c>
       <c r="E189">
         <v>39.200000000000003</v>
@@ -5785,16 +5787,16 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
+        <v>279</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
         <v>120</v>
       </c>
-      <c r="B190">
-        <v>279</v>
-      </c>
-      <c r="C190">
+      <c r="D190">
         <v>40200</v>
-      </c>
-      <c r="D190" t="s">
-        <v>7</v>
       </c>
       <c r="E190">
         <v>40.200000000000003</v>
@@ -5811,16 +5813,16 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
+        <v>278</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
         <v>120</v>
       </c>
-      <c r="B191">
-        <v>278</v>
-      </c>
-      <c r="C191">
+      <c r="D191">
         <v>37200</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
       </c>
       <c r="E191">
         <v>37.200000000000003</v>
@@ -5837,16 +5839,16 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
+        <v>280</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
         <v>120</v>
       </c>
-      <c r="B192">
-        <v>280</v>
-      </c>
-      <c r="C192">
+      <c r="D192">
         <v>44400</v>
-      </c>
-      <c r="D192" t="s">
-        <v>7</v>
       </c>
       <c r="E192">
         <v>44.4</v>
@@ -5863,16 +5865,16 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
+        <v>276</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
         <v>120</v>
       </c>
-      <c r="B193">
-        <v>276</v>
-      </c>
-      <c r="C193">
+      <c r="D193">
         <v>41500</v>
-      </c>
-      <c r="D193" t="s">
-        <v>7</v>
       </c>
       <c r="E193">
         <v>41.5</v>
@@ -5889,16 +5891,16 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
+        <v>201</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
         <v>130</v>
       </c>
-      <c r="B194">
-        <v>201</v>
-      </c>
-      <c r="C194">
+      <c r="D194">
         <v>44600</v>
-      </c>
-      <c r="D194" t="s">
-        <v>5</v>
       </c>
       <c r="E194">
         <v>44.6</v>
@@ -5915,16 +5917,16 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
+        <v>202</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195">
         <v>130</v>
       </c>
-      <c r="B195">
-        <v>202</v>
-      </c>
-      <c r="C195">
+      <c r="D195">
         <v>44600</v>
-      </c>
-      <c r="D195" t="s">
-        <v>5</v>
       </c>
       <c r="E195">
         <v>44.6</v>
@@ -5941,16 +5943,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
+        <v>214</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196">
         <v>130</v>
       </c>
-      <c r="B196">
-        <v>214</v>
-      </c>
-      <c r="C196">
+      <c r="D196">
         <v>41300</v>
-      </c>
-      <c r="D196" t="s">
-        <v>5</v>
       </c>
       <c r="E196">
         <v>41.3</v>
@@ -5967,16 +5969,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
+        <v>2500</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197">
         <v>130</v>
       </c>
-      <c r="B197">
-        <v>2500</v>
-      </c>
-      <c r="C197">
+      <c r="D197">
         <v>45200</v>
-      </c>
-      <c r="D197" t="s">
-        <v>5</v>
       </c>
       <c r="E197">
         <v>45.2</v>
@@ -5993,16 +5995,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
+        <v>203</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198">
         <v>131</v>
       </c>
-      <c r="B198">
-        <v>203</v>
-      </c>
-      <c r="C198">
+      <c r="D198">
         <v>45400</v>
-      </c>
-      <c r="D198" t="s">
-        <v>5</v>
       </c>
       <c r="E198">
         <v>45.4</v>
@@ -6019,16 +6021,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
+        <v>204</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199">
         <v>131</v>
       </c>
-      <c r="B199">
-        <v>204</v>
-      </c>
-      <c r="C199">
+      <c r="D199">
         <v>39100</v>
-      </c>
-      <c r="D199" t="s">
-        <v>5</v>
       </c>
       <c r="E199">
         <v>39.1</v>
@@ -6045,16 +6047,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
+        <v>207</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200">
         <v>131</v>
       </c>
-      <c r="B200">
-        <v>207</v>
-      </c>
-      <c r="C200">
+      <c r="D200">
         <v>40800</v>
-      </c>
-      <c r="D200" t="s">
-        <v>5</v>
       </c>
       <c r="E200">
         <v>40.799999999999997</v>
@@ -6071,16 +6073,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
+        <v>208</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
         <v>131</v>
       </c>
-      <c r="B201">
-        <v>208</v>
-      </c>
-      <c r="C201">
+      <c r="D201">
         <v>48500</v>
-      </c>
-      <c r="D201" t="s">
-        <v>5</v>
       </c>
       <c r="E201">
         <v>48.5</v>
@@ -6097,16 +6099,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
+        <v>209</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202">
         <v>131</v>
       </c>
-      <c r="B202">
-        <v>209</v>
-      </c>
-      <c r="C202">
+      <c r="D202">
         <v>45600</v>
-      </c>
-      <c r="D202" t="s">
-        <v>5</v>
       </c>
       <c r="E202">
         <v>45.6</v>
@@ -6123,16 +6125,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
+        <v>250</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203">
         <v>131</v>
       </c>
-      <c r="B203">
-        <v>250</v>
-      </c>
-      <c r="C203">
+      <c r="D203">
         <v>47800</v>
-      </c>
-      <c r="D203" t="s">
-        <v>5</v>
       </c>
       <c r="E203">
         <v>47.8</v>
@@ -6149,16 +6151,16 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
+        <v>298</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
         <v>124</v>
       </c>
-      <c r="B204">
-        <v>298</v>
-      </c>
-      <c r="C204">
+      <c r="D204">
         <v>35400</v>
-      </c>
-      <c r="D204" t="s">
-        <v>7</v>
       </c>
       <c r="E204">
         <v>35.4</v>
@@ -6175,16 +6177,16 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
+        <v>292</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
         <v>124</v>
       </c>
-      <c r="B205">
-        <v>292</v>
-      </c>
-      <c r="C205">
+      <c r="D205">
         <v>34000</v>
-      </c>
-      <c r="D205" t="s">
-        <v>7</v>
       </c>
       <c r="E205">
         <v>34</v>
@@ -6201,16 +6203,16 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
+        <v>293</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
         <v>124</v>
       </c>
-      <c r="B206">
-        <v>293</v>
-      </c>
-      <c r="C206">
+      <c r="D206">
         <v>39700</v>
-      </c>
-      <c r="D206" t="s">
-        <v>7</v>
       </c>
       <c r="E206">
         <v>39.700000000000003</v>
@@ -6227,16 +6229,16 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
+        <v>290</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
         <v>124</v>
       </c>
-      <c r="B207">
-        <v>290</v>
-      </c>
-      <c r="C207">
+      <c r="D207">
         <v>35900</v>
-      </c>
-      <c r="D207" t="s">
-        <v>7</v>
       </c>
       <c r="E207">
         <v>35.9</v>
@@ -6253,16 +6255,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
+        <v>297</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
         <v>124</v>
       </c>
-      <c r="B208">
-        <v>297</v>
-      </c>
-      <c r="C208">
+      <c r="D208">
         <v>39100</v>
-      </c>
-      <c r="D208" t="s">
-        <v>7</v>
       </c>
       <c r="E208">
         <v>39.1</v>
@@ -6279,16 +6281,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
+        <v>291</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
         <v>125</v>
       </c>
-      <c r="B209">
-        <v>291</v>
-      </c>
-      <c r="C209">
+      <c r="D209">
         <v>46800</v>
-      </c>
-      <c r="D209" t="s">
-        <v>7</v>
       </c>
       <c r="E209">
         <v>46.8</v>
@@ -6305,16 +6307,16 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
+        <v>294</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
         <v>125</v>
       </c>
-      <c r="B210">
-        <v>294</v>
-      </c>
-      <c r="C210">
+      <c r="D210">
         <v>47000</v>
-      </c>
-      <c r="D210" t="s">
-        <v>7</v>
       </c>
       <c r="E210">
         <v>47</v>
@@ -6331,16 +6333,16 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
+        <v>277</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
         <v>127</v>
       </c>
-      <c r="B211">
-        <v>277</v>
-      </c>
-      <c r="C211">
+      <c r="D211">
         <v>34600</v>
-      </c>
-      <c r="D211" t="s">
-        <v>7</v>
       </c>
       <c r="E211">
         <v>34.6</v>
@@ -6357,16 +6359,16 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
+        <v>300</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
         <v>127</v>
       </c>
-      <c r="B212">
-        <v>300</v>
-      </c>
-      <c r="C212">
+      <c r="D212">
         <v>39200</v>
-      </c>
-      <c r="D212" t="s">
-        <v>7</v>
       </c>
       <c r="E212">
         <v>39.200000000000003</v>
@@ -6383,16 +6385,16 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
+        <v>281</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
         <v>127</v>
       </c>
-      <c r="B213">
-        <v>281</v>
-      </c>
-      <c r="C213">
+      <c r="D213">
         <v>40200</v>
-      </c>
-      <c r="D213" t="s">
-        <v>7</v>
       </c>
       <c r="E213">
         <v>40.200000000000003</v>
@@ -6409,16 +6411,16 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
+        <v>279</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
         <v>127</v>
       </c>
-      <c r="B214">
-        <v>279</v>
-      </c>
-      <c r="C214">
+      <c r="D214">
         <v>41400</v>
-      </c>
-      <c r="D214" t="s">
-        <v>7</v>
       </c>
       <c r="E214">
         <v>41.4</v>
@@ -6435,16 +6437,16 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
+        <v>278</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
         <v>127</v>
       </c>
-      <c r="B215">
-        <v>278</v>
-      </c>
-      <c r="C215">
+      <c r="D215">
         <v>38200</v>
-      </c>
-      <c r="D215" t="s">
-        <v>7</v>
       </c>
       <c r="E215">
         <v>38.200000000000003</v>
@@ -6461,16 +6463,16 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
+        <v>280</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
         <v>127</v>
       </c>
-      <c r="B216">
-        <v>280</v>
-      </c>
-      <c r="C216">
+      <c r="D216">
         <v>45700</v>
-      </c>
-      <c r="D216" t="s">
-        <v>7</v>
       </c>
       <c r="E216">
         <v>45.7</v>
@@ -6487,16 +6489,16 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
+        <v>276</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
         <v>127</v>
       </c>
-      <c r="B217">
-        <v>276</v>
-      </c>
-      <c r="C217">
+      <c r="D217">
         <v>42700</v>
-      </c>
-      <c r="D217" t="s">
-        <v>7</v>
       </c>
       <c r="E217">
         <v>42.7</v>
@@ -6513,16 +6515,16 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
+        <v>201</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218">
         <v>137</v>
       </c>
-      <c r="B218">
-        <v>201</v>
-      </c>
-      <c r="C218">
+      <c r="D218">
         <v>46200</v>
-      </c>
-      <c r="D218" t="s">
-        <v>5</v>
       </c>
       <c r="E218">
         <v>46.2</v>
@@ -6539,16 +6541,16 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
+        <v>202</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219">
         <v>137</v>
       </c>
-      <c r="B219">
-        <v>202</v>
-      </c>
-      <c r="C219">
+      <c r="D219">
         <v>46200</v>
-      </c>
-      <c r="D219" t="s">
-        <v>5</v>
       </c>
       <c r="E219">
         <v>46.2</v>
@@ -6565,16 +6567,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
+        <v>214</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220">
         <v>137</v>
       </c>
-      <c r="B220">
-        <v>214</v>
-      </c>
-      <c r="C220">
+      <c r="D220">
         <v>42600</v>
-      </c>
-      <c r="D220" t="s">
-        <v>5</v>
       </c>
       <c r="E220">
         <v>42.6</v>
@@ -6591,16 +6593,16 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
+        <v>2500</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221">
         <v>137</v>
       </c>
-      <c r="B221">
-        <v>2500</v>
-      </c>
-      <c r="C221">
+      <c r="D221">
         <v>46800</v>
-      </c>
-      <c r="D221" t="s">
-        <v>5</v>
       </c>
       <c r="E221">
         <v>46.8</v>
@@ -6617,16 +6619,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
+        <v>203</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222">
         <v>138</v>
       </c>
-      <c r="B222">
-        <v>203</v>
-      </c>
-      <c r="C222">
+      <c r="D222">
         <v>46100</v>
-      </c>
-      <c r="D222" t="s">
-        <v>5</v>
       </c>
       <c r="E222">
         <v>46.1</v>
@@ -6643,16 +6645,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
+        <v>204</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223">
         <v>138</v>
       </c>
-      <c r="B223">
-        <v>204</v>
-      </c>
-      <c r="C223">
+      <c r="D223">
         <v>40600</v>
-      </c>
-      <c r="D223" t="s">
-        <v>5</v>
       </c>
       <c r="E223">
         <v>40.6</v>
@@ -6669,16 +6671,16 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
+        <v>207</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224">
         <v>138</v>
       </c>
-      <c r="B224">
-        <v>207</v>
-      </c>
-      <c r="C224">
+      <c r="D224">
         <v>41900</v>
-      </c>
-      <c r="D224" t="s">
-        <v>5</v>
       </c>
       <c r="E224">
         <v>41.9</v>
@@ -6695,16 +6697,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
+        <v>208</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
         <v>138</v>
       </c>
-      <c r="B225">
-        <v>208</v>
-      </c>
-      <c r="C225">
+      <c r="D225">
         <v>50800</v>
-      </c>
-      <c r="D225" t="s">
-        <v>5</v>
       </c>
       <c r="E225">
         <v>50.8</v>
@@ -6721,16 +6723,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
+        <v>209</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226">
         <v>138</v>
       </c>
-      <c r="B226">
-        <v>209</v>
-      </c>
-      <c r="C226">
+      <c r="D226">
         <v>47200</v>
-      </c>
-      <c r="D226" t="s">
-        <v>5</v>
       </c>
       <c r="E226">
         <v>47.2</v>
@@ -6747,16 +6749,16 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
+        <v>250</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227">
         <v>138</v>
       </c>
-      <c r="B227">
-        <v>250</v>
-      </c>
-      <c r="C227">
+      <c r="D227">
         <v>49200</v>
-      </c>
-      <c r="D227" t="s">
-        <v>5</v>
       </c>
       <c r="E227">
         <v>49.2</v>
@@ -6773,16 +6775,16 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
+        <v>298</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
         <v>131</v>
       </c>
-      <c r="B228">
-        <v>298</v>
-      </c>
-      <c r="C228">
+      <c r="D228">
         <v>36600</v>
-      </c>
-      <c r="D228" t="s">
-        <v>7</v>
       </c>
       <c r="E228">
         <v>36.6</v>
@@ -6799,16 +6801,16 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
+        <v>292</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
         <v>131</v>
       </c>
-      <c r="B229">
-        <v>292</v>
-      </c>
-      <c r="C229">
+      <c r="D229">
         <v>35700</v>
-      </c>
-      <c r="D229" t="s">
-        <v>7</v>
       </c>
       <c r="E229">
         <v>35.700000000000003</v>
@@ -6825,16 +6827,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
+        <v>293</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230">
         <v>131</v>
       </c>
-      <c r="B230">
-        <v>293</v>
-      </c>
-      <c r="C230">
+      <c r="D230">
         <v>40400</v>
-      </c>
-      <c r="D230" t="s">
-        <v>7</v>
       </c>
       <c r="E230">
         <v>40.4</v>
@@ -6851,16 +6853,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
+        <v>290</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231">
         <v>131</v>
       </c>
-      <c r="B231">
-        <v>290</v>
-      </c>
-      <c r="C231">
+      <c r="D231">
         <v>37700</v>
-      </c>
-      <c r="D231" t="s">
-        <v>7</v>
       </c>
       <c r="E231">
         <v>37.700000000000003</v>
@@ -6877,16 +6879,16 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
+        <v>297</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232">
         <v>131</v>
       </c>
-      <c r="B232">
-        <v>297</v>
-      </c>
-      <c r="C232">
+      <c r="D232">
         <v>40400</v>
-      </c>
-      <c r="D232" t="s">
-        <v>7</v>
       </c>
       <c r="E232">
         <v>40.4</v>
@@ -6903,16 +6905,16 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
+        <v>291</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233">
         <v>132</v>
       </c>
-      <c r="B233">
-        <v>291</v>
-      </c>
-      <c r="C233">
+      <c r="D233">
         <v>47000</v>
-      </c>
-      <c r="D233" t="s">
-        <v>7</v>
       </c>
       <c r="E233">
         <v>47</v>
@@ -6929,16 +6931,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
+        <v>294</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234">
         <v>132</v>
       </c>
-      <c r="B234">
-        <v>294</v>
-      </c>
-      <c r="C234">
+      <c r="D234">
         <v>48500</v>
-      </c>
-      <c r="D234" t="s">
-        <v>7</v>
       </c>
       <c r="E234">
         <v>48.5</v>
@@ -6955,16 +6957,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
+        <v>277</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235">
         <v>134</v>
       </c>
-      <c r="B235">
-        <v>277</v>
-      </c>
-      <c r="C235">
+      <c r="D235">
         <v>36300</v>
-      </c>
-      <c r="D235" t="s">
-        <v>7</v>
       </c>
       <c r="E235">
         <v>36.299999999999997</v>
@@ -6981,16 +6983,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
+        <v>300</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236">
         <v>134</v>
       </c>
-      <c r="B236">
-        <v>300</v>
-      </c>
-      <c r="C236">
+      <c r="D236">
         <v>39800</v>
-      </c>
-      <c r="D236" t="s">
-        <v>7</v>
       </c>
       <c r="E236">
         <v>39.799999999999997</v>
@@ -7007,16 +7009,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
+        <v>281</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237">
         <v>134</v>
       </c>
-      <c r="B237">
-        <v>281</v>
-      </c>
-      <c r="C237">
+      <c r="D237">
         <v>42000</v>
-      </c>
-      <c r="D237" t="s">
-        <v>7</v>
       </c>
       <c r="E237">
         <v>42</v>
@@ -7033,16 +7035,16 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
+        <v>279</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238">
         <v>134</v>
       </c>
-      <c r="B238">
-        <v>279</v>
-      </c>
-      <c r="C238">
+      <c r="D238">
         <v>42500</v>
-      </c>
-      <c r="D238" t="s">
-        <v>7</v>
       </c>
       <c r="E238">
         <v>42.5</v>
@@ -7059,16 +7061,16 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
+        <v>278</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239">
         <v>134</v>
       </c>
-      <c r="B239">
-        <v>278</v>
-      </c>
-      <c r="C239">
+      <c r="D239">
         <v>40000</v>
-      </c>
-      <c r="D239" t="s">
-        <v>7</v>
       </c>
       <c r="E239">
         <v>40</v>
@@ -7085,16 +7087,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
+        <v>280</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240">
         <v>134</v>
       </c>
-      <c r="B240">
-        <v>280</v>
-      </c>
-      <c r="C240">
+      <c r="D240">
         <v>46600</v>
-      </c>
-      <c r="D240" t="s">
-        <v>7</v>
       </c>
       <c r="E240">
         <v>46.6</v>
@@ -7111,16 +7113,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
+        <v>276</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241">
         <v>134</v>
       </c>
-      <c r="B241">
-        <v>276</v>
-      </c>
-      <c r="C241">
+      <c r="D241">
         <v>43800</v>
-      </c>
-      <c r="D241" t="s">
-        <v>7</v>
       </c>
       <c r="E241">
         <v>43.8</v>
@@ -7137,16 +7139,16 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
+        <v>201</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242">
         <v>144</v>
       </c>
-      <c r="B242">
-        <v>201</v>
-      </c>
-      <c r="C242">
+      <c r="D242">
         <v>46300</v>
-      </c>
-      <c r="D242" t="s">
-        <v>5</v>
       </c>
       <c r="E242">
         <v>46.3</v>
@@ -7163,16 +7165,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
+        <v>202</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243">
         <v>144</v>
       </c>
-      <c r="B243">
-        <v>202</v>
-      </c>
-      <c r="C243">
+      <c r="D243">
         <v>45600</v>
-      </c>
-      <c r="D243" t="s">
-        <v>5</v>
       </c>
       <c r="E243">
         <v>45.6</v>
@@ -7189,16 +7191,16 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
+        <v>214</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244">
         <v>144</v>
       </c>
-      <c r="B244">
-        <v>214</v>
-      </c>
-      <c r="C244">
+      <c r="D244">
         <v>43500</v>
-      </c>
-      <c r="D244" t="s">
-        <v>5</v>
       </c>
       <c r="E244">
         <v>43.5</v>
@@ -7215,16 +7217,16 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
+        <v>2500</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245">
         <v>144</v>
       </c>
-      <c r="B245">
-        <v>2500</v>
-      </c>
-      <c r="C245">
+      <c r="D245">
         <v>47500</v>
-      </c>
-      <c r="D245" t="s">
-        <v>5</v>
       </c>
       <c r="E245">
         <v>47.5</v>
@@ -7241,16 +7243,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
+        <v>203</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246">
         <v>145</v>
       </c>
-      <c r="B246">
-        <v>203</v>
-      </c>
-      <c r="C246">
+      <c r="D246">
         <v>47000</v>
-      </c>
-      <c r="D246" t="s">
-        <v>5</v>
       </c>
       <c r="E246">
         <v>47</v>
@@ -7267,16 +7269,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
+        <v>204</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247">
         <v>145</v>
       </c>
-      <c r="B247">
-        <v>204</v>
-      </c>
-      <c r="C247">
+      <c r="D247">
         <v>41100</v>
-      </c>
-      <c r="D247" t="s">
-        <v>5</v>
       </c>
       <c r="E247">
         <v>41.1</v>
@@ -7293,16 +7295,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
+        <v>207</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248">
         <v>145</v>
       </c>
-      <c r="B248">
-        <v>207</v>
-      </c>
-      <c r="C248">
+      <c r="D248">
         <v>42700</v>
-      </c>
-      <c r="D248" t="s">
-        <v>5</v>
       </c>
       <c r="E248">
         <v>42.7</v>
@@ -7319,16 +7321,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
+        <v>208</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249">
         <v>145</v>
       </c>
-      <c r="B249">
-        <v>208</v>
-      </c>
-      <c r="C249">
+      <c r="D249">
         <v>51800</v>
-      </c>
-      <c r="D249" t="s">
-        <v>5</v>
       </c>
       <c r="E249">
         <v>51.8</v>
@@ -7345,16 +7347,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
+        <v>209</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250">
         <v>145</v>
       </c>
-      <c r="B250">
-        <v>209</v>
-      </c>
-      <c r="C250">
+      <c r="D250">
         <v>48500</v>
-      </c>
-      <c r="D250" t="s">
-        <v>5</v>
       </c>
       <c r="E250">
         <v>48.5</v>
@@ -7371,16 +7373,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251">
         <v>145</v>
       </c>
-      <c r="B251">
-        <v>250</v>
-      </c>
-      <c r="C251">
+      <c r="D251">
         <v>50000</v>
-      </c>
-      <c r="D251" t="s">
-        <v>5</v>
       </c>
       <c r="E251">
         <v>50</v>
@@ -7397,16 +7399,16 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
+        <v>298</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252">
         <v>138</v>
       </c>
-      <c r="B252">
-        <v>298</v>
-      </c>
-      <c r="C252">
+      <c r="D252">
         <v>36800</v>
-      </c>
-      <c r="D252" t="s">
-        <v>7</v>
       </c>
       <c r="E252">
         <v>36.799999999999997</v>
@@ -7423,16 +7425,16 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
+        <v>292</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253">
         <v>138</v>
       </c>
-      <c r="B253">
-        <v>292</v>
-      </c>
-      <c r="C253">
+      <c r="D253">
         <v>36800</v>
-      </c>
-      <c r="D253" t="s">
-        <v>7</v>
       </c>
       <c r="E253">
         <v>36.799999999999997</v>
@@ -7449,16 +7451,16 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
+        <v>293</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254">
         <v>138</v>
       </c>
-      <c r="B254">
-        <v>293</v>
-      </c>
-      <c r="C254">
+      <c r="D254">
         <v>41500</v>
-      </c>
-      <c r="D254" t="s">
-        <v>7</v>
       </c>
       <c r="E254">
         <v>41.5</v>
@@ -7475,16 +7477,16 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
+        <v>290</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255">
         <v>138</v>
       </c>
-      <c r="B255">
-        <v>290</v>
-      </c>
-      <c r="C255">
+      <c r="D255">
         <v>38800</v>
-      </c>
-      <c r="D255" t="s">
-        <v>7</v>
       </c>
       <c r="E255">
         <v>38.799999999999997</v>
@@ -7501,16 +7503,16 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
+        <v>297</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256">
         <v>138</v>
       </c>
-      <c r="B256">
-        <v>297</v>
-      </c>
-      <c r="C256">
+      <c r="D256">
         <v>41100</v>
-      </c>
-      <c r="D256" t="s">
-        <v>7</v>
       </c>
       <c r="E256">
         <v>41.1</v>
@@ -7527,16 +7529,16 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
+        <v>291</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257">
         <v>139</v>
       </c>
-      <c r="B257">
-        <v>291</v>
-      </c>
-      <c r="C257">
+      <c r="D257">
         <v>47000</v>
-      </c>
-      <c r="D257" t="s">
-        <v>7</v>
       </c>
       <c r="E257">
         <v>47</v>
@@ -7553,16 +7555,16 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
+        <v>294</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258">
         <v>139</v>
       </c>
-      <c r="B258">
-        <v>294</v>
-      </c>
-      <c r="C258">
+      <c r="D258">
         <v>48300</v>
-      </c>
-      <c r="D258" t="s">
-        <v>7</v>
       </c>
       <c r="E258">
         <v>48.3</v>
@@ -7579,16 +7581,16 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
+        <v>277</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259">
         <v>141</v>
       </c>
-      <c r="B259">
-        <v>277</v>
-      </c>
-      <c r="C259">
+      <c r="D259">
         <v>37200</v>
-      </c>
-      <c r="D259" t="s">
-        <v>7</v>
       </c>
       <c r="E259">
         <v>37.200000000000003</v>
@@ -7605,16 +7607,16 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
+        <v>300</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260">
         <v>141</v>
       </c>
-      <c r="B260">
-        <v>300</v>
-      </c>
-      <c r="C260">
+      <c r="D260">
         <v>41200</v>
-      </c>
-      <c r="D260" t="s">
-        <v>7</v>
       </c>
       <c r="E260">
         <v>41.2</v>
@@ -7631,16 +7633,16 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
+        <v>281</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261">
         <v>141</v>
       </c>
-      <c r="B261">
-        <v>281</v>
-      </c>
-      <c r="C261">
+      <c r="D261">
         <v>43500</v>
-      </c>
-      <c r="D261" t="s">
-        <v>7</v>
       </c>
       <c r="E261">
         <v>43.5</v>
@@ -7657,16 +7659,16 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
+        <v>279</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262">
         <v>141</v>
       </c>
-      <c r="B262">
-        <v>279</v>
-      </c>
-      <c r="C262">
+      <c r="D262">
         <v>43300</v>
-      </c>
-      <c r="D262" t="s">
-        <v>7</v>
       </c>
       <c r="E262">
         <v>43.3</v>
@@ -7683,16 +7685,16 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
+        <v>278</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263">
         <v>141</v>
       </c>
-      <c r="B263">
-        <v>278</v>
-      </c>
-      <c r="C263">
+      <c r="D263">
         <v>41200</v>
-      </c>
-      <c r="D263" t="s">
-        <v>7</v>
       </c>
       <c r="E263">
         <v>41.2</v>
@@ -7709,16 +7711,16 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
+        <v>280</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264">
         <v>141</v>
       </c>
-      <c r="B264">
-        <v>280</v>
-      </c>
-      <c r="C264">
+      <c r="D264">
         <v>47600</v>
-      </c>
-      <c r="D264" t="s">
-        <v>7</v>
       </c>
       <c r="E264">
         <v>47.6</v>
@@ -7735,16 +7737,16 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
+        <v>276</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265">
         <v>141</v>
       </c>
-      <c r="B265">
-        <v>276</v>
-      </c>
-      <c r="C265">
+      <c r="D265">
         <v>44100</v>
-      </c>
-      <c r="D265" t="s">
-        <v>7</v>
       </c>
       <c r="E265">
         <v>44.1</v>
@@ -7761,16 +7763,16 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
+        <v>201</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266">
         <v>151</v>
       </c>
-      <c r="B266">
-        <v>201</v>
-      </c>
-      <c r="C266">
+      <c r="D266">
         <v>47000</v>
-      </c>
-      <c r="D266" t="s">
-        <v>5</v>
       </c>
       <c r="E266">
         <v>47</v>
@@ -7787,16 +7789,16 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
+        <v>202</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267">
         <v>151</v>
       </c>
-      <c r="B267">
-        <v>202</v>
-      </c>
-      <c r="C267">
+      <c r="D267">
         <v>46900</v>
-      </c>
-      <c r="D267" t="s">
-        <v>5</v>
       </c>
       <c r="E267">
         <v>46.9</v>
@@ -7813,16 +7815,16 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
+        <v>214</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268">
         <v>151</v>
       </c>
-      <c r="B268">
-        <v>214</v>
-      </c>
-      <c r="C268">
+      <c r="D268">
         <v>41500</v>
-      </c>
-      <c r="D268" t="s">
-        <v>5</v>
       </c>
       <c r="E268">
         <v>41.5</v>
@@ -7839,16 +7841,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
+        <v>2500</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269">
         <v>151</v>
       </c>
-      <c r="B269">
-        <v>2500</v>
-      </c>
-      <c r="C269">
+      <c r="D269">
         <v>49200</v>
-      </c>
-      <c r="D269" t="s">
-        <v>5</v>
       </c>
       <c r="E269">
         <v>49.2</v>
@@ -7865,16 +7867,16 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
+        <v>203</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270">
         <v>152</v>
       </c>
-      <c r="B270">
-        <v>203</v>
-      </c>
-      <c r="C270">
+      <c r="D270">
         <v>48000</v>
-      </c>
-      <c r="D270" t="s">
-        <v>5</v>
       </c>
       <c r="E270">
         <v>48</v>
@@ -7891,16 +7893,16 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
+        <v>204</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271">
         <v>152</v>
       </c>
-      <c r="B271">
-        <v>204</v>
-      </c>
-      <c r="C271">
+      <c r="D271">
         <v>42500</v>
-      </c>
-      <c r="D271" t="s">
-        <v>5</v>
       </c>
       <c r="E271">
         <v>42.5</v>
@@ -7917,16 +7919,16 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
+        <v>207</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272">
         <v>152</v>
       </c>
-      <c r="B272">
-        <v>207</v>
-      </c>
-      <c r="C272">
+      <c r="D272">
         <v>43700</v>
-      </c>
-      <c r="D272" t="s">
-        <v>5</v>
       </c>
       <c r="E272">
         <v>43.7</v>
@@ -7943,16 +7945,16 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
+        <v>208</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273">
         <v>152</v>
       </c>
-      <c r="B273">
-        <v>208</v>
-      </c>
-      <c r="C273">
+      <c r="D273">
         <v>52800</v>
-      </c>
-      <c r="D273" t="s">
-        <v>8</v>
       </c>
       <c r="E273">
         <v>52.8</v>
@@ -7969,16 +7971,16 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
+        <v>209</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274">
         <v>152</v>
       </c>
-      <c r="B274">
-        <v>209</v>
-      </c>
-      <c r="C274">
+      <c r="D274">
         <v>49600</v>
-      </c>
-      <c r="D274" t="s">
-        <v>5</v>
       </c>
       <c r="E274">
         <v>49.6</v>
@@ -7995,16 +7997,16 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
+        <v>250</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275">
         <v>152</v>
       </c>
-      <c r="B275">
-        <v>250</v>
-      </c>
-      <c r="C275">
+      <c r="D275">
         <v>51000</v>
-      </c>
-      <c r="D275" t="s">
-        <v>5</v>
       </c>
       <c r="E275">
         <v>51</v>
@@ -8021,16 +8023,16 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
+        <v>298</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276">
         <v>145</v>
       </c>
-      <c r="B276">
-        <v>298</v>
-      </c>
-      <c r="C276">
+      <c r="D276">
         <v>39100</v>
-      </c>
-      <c r="D276" t="s">
-        <v>7</v>
       </c>
       <c r="E276">
         <v>39.1</v>
@@ -8047,16 +8049,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
+        <v>298</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277">
         <v>145</v>
       </c>
-      <c r="B277">
-        <v>298</v>
-      </c>
-      <c r="C277">
+      <c r="D277">
         <v>39000</v>
-      </c>
-      <c r="D277" t="s">
-        <v>7</v>
       </c>
       <c r="E277">
         <v>39</v>
@@ -8073,16 +8075,16 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
+        <v>292</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278">
         <v>145</v>
       </c>
-      <c r="B278">
-        <v>292</v>
-      </c>
-      <c r="C278">
+      <c r="D278">
         <v>38900</v>
-      </c>
-      <c r="D278" t="s">
-        <v>7</v>
       </c>
       <c r="E278">
         <v>38.9</v>
@@ -8099,16 +8101,16 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
+        <v>292</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279">
         <v>145</v>
       </c>
-      <c r="B279">
-        <v>292</v>
-      </c>
-      <c r="C279">
+      <c r="D279">
         <v>38600</v>
-      </c>
-      <c r="D279" t="s">
-        <v>7</v>
       </c>
       <c r="E279">
         <v>38.6</v>
@@ -8125,16 +8127,16 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
+        <v>293</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280">
         <v>145</v>
       </c>
-      <c r="B280">
-        <v>293</v>
-      </c>
-      <c r="C280">
+      <c r="D280">
         <v>43000</v>
-      </c>
-      <c r="D280" t="s">
-        <v>7</v>
       </c>
       <c r="E280">
         <v>43</v>
@@ -8151,16 +8153,16 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
+        <v>293</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281">
         <v>145</v>
       </c>
-      <c r="B281">
-        <v>293</v>
-      </c>
-      <c r="C281">
+      <c r="D281">
         <v>42800</v>
-      </c>
-      <c r="D281" t="s">
-        <v>7</v>
       </c>
       <c r="E281">
         <v>42.8</v>
@@ -8177,16 +8179,16 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
+        <v>290</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282">
         <v>145</v>
       </c>
-      <c r="B282">
-        <v>290</v>
-      </c>
-      <c r="C282">
+      <c r="D282">
         <v>41500</v>
-      </c>
-      <c r="D282" t="s">
-        <v>7</v>
       </c>
       <c r="E282">
         <v>41.5</v>
@@ -8203,16 +8205,16 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
+        <v>290</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283">
         <v>145</v>
       </c>
-      <c r="B283">
-        <v>290</v>
-      </c>
-      <c r="C283">
+      <c r="D283">
         <v>41200</v>
-      </c>
-      <c r="D283" t="s">
-        <v>7</v>
       </c>
       <c r="E283">
         <v>41.2</v>
@@ -8229,16 +8231,16 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
+        <v>297</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284">
         <v>145</v>
       </c>
-      <c r="B284">
-        <v>297</v>
-      </c>
-      <c r="C284">
+      <c r="D284">
         <v>43000</v>
-      </c>
-      <c r="D284" t="s">
-        <v>7</v>
       </c>
       <c r="E284">
         <v>43</v>
@@ -8255,16 +8257,16 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
+        <v>297</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285">
         <v>145</v>
       </c>
-      <c r="B285">
-        <v>297</v>
-      </c>
-      <c r="C285">
+      <c r="D285">
         <v>43100</v>
-      </c>
-      <c r="D285" t="s">
-        <v>7</v>
       </c>
       <c r="E285">
         <v>43.1</v>
@@ -8281,16 +8283,16 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
+        <v>291</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286">
         <v>146</v>
       </c>
-      <c r="B286">
-        <v>291</v>
-      </c>
-      <c r="C286">
+      <c r="D286">
         <v>47500</v>
-      </c>
-      <c r="D286" t="s">
-        <v>7</v>
       </c>
       <c r="E286">
         <v>47.5</v>
@@ -8307,16 +8309,16 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
+        <v>291</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287">
         <v>146</v>
       </c>
-      <c r="B287">
-        <v>291</v>
-      </c>
-      <c r="C287">
+      <c r="D287">
         <v>46900</v>
-      </c>
-      <c r="D287" t="s">
-        <v>7</v>
       </c>
       <c r="E287">
         <v>46.9</v>
@@ -8333,16 +8335,16 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
+        <v>294</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288">
         <v>146</v>
       </c>
-      <c r="B288">
-        <v>294</v>
-      </c>
-      <c r="C288">
+      <c r="D288">
         <v>49000</v>
-      </c>
-      <c r="D288" t="s">
-        <v>7</v>
       </c>
       <c r="E288">
         <v>49</v>
@@ -8359,16 +8361,16 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
+        <v>294</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289">
         <v>146</v>
       </c>
-      <c r="B289">
-        <v>294</v>
-      </c>
-      <c r="C289">
+      <c r="D289">
         <v>49100</v>
-      </c>
-      <c r="D289" t="s">
-        <v>7</v>
       </c>
       <c r="E289">
         <v>49.1</v>
@@ -8385,16 +8387,16 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
+        <v>277</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290">
         <v>148</v>
       </c>
-      <c r="B290">
-        <v>277</v>
-      </c>
-      <c r="C290">
+      <c r="D290">
         <v>41000</v>
-      </c>
-      <c r="D290" t="s">
-        <v>7</v>
       </c>
       <c r="E290">
         <v>41</v>
@@ -8411,16 +8413,16 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
+        <v>277</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291">
         <v>148</v>
       </c>
-      <c r="B291">
-        <v>277</v>
-      </c>
-      <c r="C291">
+      <c r="D291">
         <v>41000</v>
-      </c>
-      <c r="D291" t="s">
-        <v>7</v>
       </c>
       <c r="E291">
         <v>41</v>
@@ -8437,16 +8439,16 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
+        <v>300</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292">
         <v>148</v>
       </c>
-      <c r="B292">
-        <v>300</v>
-      </c>
-      <c r="C292">
+      <c r="D292">
         <v>43100</v>
-      </c>
-      <c r="D292" t="s">
-        <v>7</v>
       </c>
       <c r="E292">
         <v>43.1</v>
@@ -8463,16 +8465,16 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
+        <v>300</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293">
         <v>148</v>
       </c>
-      <c r="B293">
-        <v>300</v>
-      </c>
-      <c r="C293">
+      <c r="D293">
         <v>42900</v>
-      </c>
-      <c r="D293" t="s">
-        <v>7</v>
       </c>
       <c r="E293">
         <v>42.9</v>
@@ -8489,16 +8491,16 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
+        <v>281</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294">
         <v>148</v>
       </c>
-      <c r="B294">
-        <v>281</v>
-      </c>
-      <c r="C294">
+      <c r="D294">
         <v>45500</v>
-      </c>
-      <c r="D294" t="s">
-        <v>7</v>
       </c>
       <c r="E294">
         <v>45.5</v>
@@ -8515,16 +8517,16 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
+        <v>281</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295">
         <v>148</v>
       </c>
-      <c r="B295">
-        <v>281</v>
-      </c>
-      <c r="C295">
+      <c r="D295">
         <v>45100</v>
-      </c>
-      <c r="D295" t="s">
-        <v>7</v>
       </c>
       <c r="E295">
         <v>45.1</v>
@@ -8541,16 +8543,16 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
+        <v>279</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296">
         <v>148</v>
       </c>
-      <c r="B296">
-        <v>279</v>
-      </c>
-      <c r="C296">
+      <c r="D296">
         <v>45600</v>
-      </c>
-      <c r="D296" t="s">
-        <v>7</v>
       </c>
       <c r="E296">
         <v>45.6</v>
@@ -8567,16 +8569,16 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
+        <v>279</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297">
         <v>148</v>
       </c>
-      <c r="B297">
-        <v>279</v>
-      </c>
-      <c r="C297">
+      <c r="D297">
         <v>45000</v>
-      </c>
-      <c r="D297" t="s">
-        <v>7</v>
       </c>
       <c r="E297">
         <v>45</v>
@@ -8593,16 +8595,16 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
+        <v>278</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298">
         <v>148</v>
       </c>
-      <c r="B298">
-        <v>278</v>
-      </c>
-      <c r="C298">
+      <c r="D298">
         <v>43600</v>
-      </c>
-      <c r="D298" t="s">
-        <v>7</v>
       </c>
       <c r="E298">
         <v>43.6</v>
@@ -8619,16 +8621,16 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
+        <v>278</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299">
         <v>148</v>
       </c>
-      <c r="B299">
-        <v>278</v>
-      </c>
-      <c r="C299">
+      <c r="D299">
         <v>43400</v>
-      </c>
-      <c r="D299" t="s">
-        <v>7</v>
       </c>
       <c r="E299">
         <v>43.4</v>
@@ -8645,16 +8647,16 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
+        <v>280</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300">
         <v>148</v>
       </c>
-      <c r="B300">
-        <v>280</v>
-      </c>
-      <c r="C300">
+      <c r="D300">
         <v>47800</v>
-      </c>
-      <c r="D300" t="s">
-        <v>7</v>
       </c>
       <c r="E300">
         <v>47.8</v>
@@ -8671,16 +8673,16 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
+        <v>280</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301">
         <v>148</v>
       </c>
-      <c r="B301">
-        <v>280</v>
-      </c>
-      <c r="C301">
+      <c r="D301">
         <v>47700</v>
-      </c>
-      <c r="D301" t="s">
-        <v>7</v>
       </c>
       <c r="E301">
         <v>47.7</v>
@@ -8697,16 +8699,16 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
+        <v>276</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302">
         <v>148</v>
       </c>
-      <c r="B302">
-        <v>276</v>
-      </c>
-      <c r="C302">
+      <c r="D302">
         <v>44700</v>
-      </c>
-      <c r="D302" t="s">
-        <v>7</v>
       </c>
       <c r="E302">
         <v>44.7</v>
@@ -8723,16 +8725,16 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
+        <v>276</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303">
         <v>148</v>
       </c>
-      <c r="B303">
-        <v>276</v>
-      </c>
-      <c r="C303">
+      <c r="D303">
         <v>44500</v>
-      </c>
-      <c r="D303" t="s">
-        <v>7</v>
       </c>
       <c r="E303">
         <v>44.5</v>
@@ -8749,16 +8751,16 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
+        <v>201</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304">
         <v>158</v>
       </c>
-      <c r="B304">
-        <v>201</v>
-      </c>
-      <c r="C304">
+      <c r="D304">
         <v>47500</v>
-      </c>
-      <c r="D304" t="s">
-        <v>5</v>
       </c>
       <c r="E304">
         <v>47.5</v>
@@ -8775,16 +8777,16 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
+        <v>201</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305">
         <v>158</v>
       </c>
-      <c r="B305">
-        <v>201</v>
-      </c>
-      <c r="C305">
+      <c r="D305">
         <v>47400</v>
-      </c>
-      <c r="D305" t="s">
-        <v>5</v>
       </c>
       <c r="E305">
         <v>47.4</v>
@@ -8801,16 +8803,16 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
+        <v>202</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306">
         <v>158</v>
       </c>
-      <c r="B306">
-        <v>202</v>
-      </c>
-      <c r="C306">
+      <c r="D306">
         <v>47600</v>
-      </c>
-      <c r="D306" t="s">
-        <v>5</v>
       </c>
       <c r="E306">
         <v>47.6</v>
@@ -8827,16 +8829,16 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
+        <v>202</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307">
         <v>158</v>
       </c>
-      <c r="B307">
-        <v>202</v>
-      </c>
-      <c r="C307">
+      <c r="D307">
         <v>47300</v>
-      </c>
-      <c r="D307" t="s">
-        <v>5</v>
       </c>
       <c r="E307">
         <v>47.3</v>
@@ -8853,16 +8855,16 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
+        <v>214</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308">
         <v>158</v>
       </c>
-      <c r="B308">
-        <v>214</v>
-      </c>
-      <c r="C308">
+      <c r="D308">
         <v>46000</v>
-      </c>
-      <c r="D308" t="s">
-        <v>5</v>
       </c>
       <c r="E308">
         <v>46</v>
@@ -8879,16 +8881,16 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
+        <v>214</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309">
         <v>158</v>
       </c>
-      <c r="B309">
-        <v>214</v>
-      </c>
-      <c r="C309">
+      <c r="D309">
         <v>45800</v>
-      </c>
-      <c r="D309" t="s">
-        <v>5</v>
       </c>
       <c r="E309">
         <v>45.8</v>
@@ -8905,16 +8907,16 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
+        <v>2500</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310">
         <v>158</v>
       </c>
-      <c r="B310">
-        <v>2500</v>
-      </c>
-      <c r="C310">
+      <c r="D310">
         <v>50400</v>
-      </c>
-      <c r="D310" t="s">
-        <v>5</v>
       </c>
       <c r="E310">
         <v>50.4</v>
@@ -8931,16 +8933,16 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
+        <v>2500</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311">
         <v>158</v>
       </c>
-      <c r="B311">
-        <v>2500</v>
-      </c>
-      <c r="C311">
+      <c r="D311">
         <v>50400</v>
-      </c>
-      <c r="D311" t="s">
-        <v>5</v>
       </c>
       <c r="E311">
         <v>50.4</v>
@@ -8957,16 +8959,16 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
+        <v>203</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312">
         <v>159</v>
       </c>
-      <c r="B312">
-        <v>203</v>
-      </c>
-      <c r="C312">
+      <c r="D312">
         <v>48700</v>
-      </c>
-      <c r="D312" t="s">
-        <v>5</v>
       </c>
       <c r="E312">
         <v>48.7</v>
@@ -8983,16 +8985,16 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
+        <v>203</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313">
         <v>159</v>
       </c>
-      <c r="B313">
-        <v>203</v>
-      </c>
-      <c r="C313">
+      <c r="D313">
         <v>48800</v>
-      </c>
-      <c r="D313" t="s">
-        <v>5</v>
       </c>
       <c r="E313">
         <v>48.8</v>
@@ -9009,16 +9011,16 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
+        <v>204</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314">
         <v>159</v>
       </c>
-      <c r="B314">
-        <v>204</v>
-      </c>
-      <c r="C314">
+      <c r="D314">
         <v>44000</v>
-      </c>
-      <c r="D314" t="s">
-        <v>5</v>
       </c>
       <c r="E314">
         <v>44</v>
@@ -9035,16 +9037,16 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
+        <v>204</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315">
         <v>159</v>
       </c>
-      <c r="B315">
-        <v>204</v>
-      </c>
-      <c r="C315">
+      <c r="D315">
         <v>43600</v>
-      </c>
-      <c r="D315" t="s">
-        <v>5</v>
       </c>
       <c r="E315">
         <v>43.6</v>
@@ -9061,16 +9063,16 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
+        <v>207</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316">
         <v>159</v>
       </c>
-      <c r="B316">
-        <v>207</v>
-      </c>
-      <c r="C316">
+      <c r="D316">
         <v>45000</v>
-      </c>
-      <c r="D316" t="s">
-        <v>5</v>
       </c>
       <c r="E316">
         <v>45</v>
@@ -9087,16 +9089,16 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
+        <v>207</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317">
         <v>159</v>
       </c>
-      <c r="B317">
-        <v>207</v>
-      </c>
-      <c r="C317">
+      <c r="D317">
         <v>45400</v>
-      </c>
-      <c r="D317" t="s">
-        <v>5</v>
       </c>
       <c r="E317">
         <v>45.4</v>
@@ -9113,16 +9115,16 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
+        <v>208</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318">
         <v>159</v>
       </c>
-      <c r="B318">
-        <v>208</v>
-      </c>
-      <c r="C318">
+      <c r="D318">
         <v>53200</v>
-      </c>
-      <c r="D318" t="s">
-        <v>5</v>
       </c>
       <c r="E318">
         <v>53.2</v>
@@ -9139,16 +9141,16 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
+        <v>208</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319">
         <v>159</v>
       </c>
-      <c r="B319">
-        <v>208</v>
-      </c>
-      <c r="C319">
+      <c r="D319">
         <v>53100</v>
-      </c>
-      <c r="D319" t="s">
-        <v>5</v>
       </c>
       <c r="E319">
         <v>53.1</v>
@@ -9165,16 +9167,16 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
+        <v>209</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320">
         <v>159</v>
       </c>
-      <c r="B320">
-        <v>209</v>
-      </c>
-      <c r="C320">
+      <c r="D320">
         <v>51000</v>
-      </c>
-      <c r="D320" t="s">
-        <v>5</v>
       </c>
       <c r="E320">
         <v>51</v>
@@ -9191,16 +9193,16 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
+        <v>209</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321">
         <v>159</v>
       </c>
-      <c r="B321">
-        <v>209</v>
-      </c>
-      <c r="C321">
+      <c r="D321">
         <v>50700</v>
-      </c>
-      <c r="D321" t="s">
-        <v>5</v>
       </c>
       <c r="E321">
         <v>50.7</v>
@@ -9217,16 +9219,16 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
+        <v>250</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322">
         <v>159</v>
       </c>
-      <c r="B322">
-        <v>250</v>
-      </c>
-      <c r="C322">
+      <c r="D322">
         <v>51100</v>
-      </c>
-      <c r="D322" t="s">
-        <v>5</v>
       </c>
       <c r="E322">
         <v>51.1</v>
@@ -9243,16 +9245,16 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
+        <v>250</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323">
         <v>159</v>
       </c>
-      <c r="B323">
-        <v>250</v>
-      </c>
-      <c r="C323">
+      <c r="D323">
         <v>51000</v>
-      </c>
-      <c r="D323" t="s">
-        <v>5</v>
       </c>
       <c r="E323">
         <v>51</v>
@@ -9269,16 +9271,16 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
+        <v>298</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324">
         <v>152</v>
       </c>
-      <c r="B324">
-        <v>298</v>
-      </c>
-      <c r="C324">
+      <c r="D324">
         <v>38800</v>
-      </c>
-      <c r="D324" t="s">
-        <v>7</v>
       </c>
       <c r="E324">
         <v>38.799999999999997</v>
@@ -9295,16 +9297,16 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
+        <v>298</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325">
         <v>152</v>
       </c>
-      <c r="B325">
-        <v>298</v>
-      </c>
-      <c r="C325">
+      <c r="D325">
         <v>38600</v>
-      </c>
-      <c r="D325" t="s">
-        <v>7</v>
       </c>
       <c r="E325">
         <v>38.6</v>
@@ -9321,16 +9323,16 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
+        <v>292</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326">
         <v>152</v>
       </c>
-      <c r="B326">
-        <v>292</v>
-      </c>
-      <c r="C326">
+      <c r="D326">
         <v>39400</v>
-      </c>
-      <c r="D326" t="s">
-        <v>7</v>
       </c>
       <c r="E326">
         <v>39.4</v>
@@ -9347,16 +9349,16 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
+        <v>292</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327">
         <v>152</v>
       </c>
-      <c r="B327">
-        <v>292</v>
-      </c>
-      <c r="C327">
+      <c r="D327">
         <v>39100</v>
-      </c>
-      <c r="D327" t="s">
-        <v>7</v>
       </c>
       <c r="E327">
         <v>39.1</v>
@@ -9373,16 +9375,16 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
+        <v>293</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328">
         <v>152</v>
       </c>
-      <c r="B328">
-        <v>293</v>
-      </c>
-      <c r="C328">
+      <c r="D328">
         <v>43200</v>
-      </c>
-      <c r="D328" t="s">
-        <v>7</v>
       </c>
       <c r="E328">
         <v>43.2</v>
@@ -9399,16 +9401,16 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
+        <v>293</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329">
         <v>152</v>
       </c>
-      <c r="B329">
-        <v>293</v>
-      </c>
-      <c r="C329">
+      <c r="D329">
         <v>43100</v>
-      </c>
-      <c r="D329" t="s">
-        <v>7</v>
       </c>
       <c r="E329">
         <v>43.1</v>
@@ -9425,16 +9427,16 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
+        <v>290</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330">
         <v>152</v>
       </c>
-      <c r="B330">
-        <v>290</v>
-      </c>
-      <c r="C330">
+      <c r="D330">
         <v>41600</v>
-      </c>
-      <c r="D330" t="s">
-        <v>7</v>
       </c>
       <c r="E330">
         <v>41.6</v>
@@ -9451,16 +9453,16 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
+        <v>290</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331">
         <v>152</v>
       </c>
-      <c r="B331">
-        <v>290</v>
-      </c>
-      <c r="C331">
+      <c r="D331">
         <v>41400</v>
-      </c>
-      <c r="D331" t="s">
-        <v>7</v>
       </c>
       <c r="E331">
         <v>41.4</v>
@@ -9477,16 +9479,16 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
+        <v>297</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332">
         <v>152</v>
       </c>
-      <c r="B332">
-        <v>297</v>
-      </c>
-      <c r="C332">
+      <c r="D332">
         <v>43900</v>
-      </c>
-      <c r="D332" t="s">
-        <v>7</v>
       </c>
       <c r="E332">
         <v>43.9</v>
@@ -9503,16 +9505,16 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
+        <v>297</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333">
         <v>152</v>
       </c>
-      <c r="B333">
-        <v>297</v>
-      </c>
-      <c r="C333">
+      <c r="D333">
         <v>43700</v>
-      </c>
-      <c r="D333" t="s">
-        <v>7</v>
       </c>
       <c r="E333">
         <v>43.7</v>
@@ -9529,16 +9531,16 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
+        <v>291</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334">
         <v>153</v>
       </c>
-      <c r="B334">
-        <v>291</v>
-      </c>
-      <c r="C334">
+      <c r="D334">
         <v>48000</v>
-      </c>
-      <c r="D334" t="s">
-        <v>7</v>
       </c>
       <c r="E334">
         <v>48</v>
@@ -9555,16 +9557,16 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
+        <v>291</v>
+      </c>
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335">
         <v>153</v>
       </c>
-      <c r="B335">
-        <v>291</v>
-      </c>
-      <c r="C335">
+      <c r="D335">
         <v>48000</v>
-      </c>
-      <c r="D335" t="s">
-        <v>7</v>
       </c>
       <c r="E335">
         <v>48</v>
@@ -9581,16 +9583,16 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
+        <v>294</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336">
         <v>153</v>
       </c>
-      <c r="B336">
-        <v>294</v>
-      </c>
-      <c r="C336">
+      <c r="D336">
         <v>49400</v>
-      </c>
-      <c r="D336" t="s">
-        <v>7</v>
       </c>
       <c r="E336">
         <v>49.4</v>
@@ -9607,16 +9609,16 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
+        <v>294</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337">
         <v>153</v>
       </c>
-      <c r="B337">
-        <v>294</v>
-      </c>
-      <c r="C337">
+      <c r="D337">
         <v>49300</v>
-      </c>
-      <c r="D337" t="s">
-        <v>7</v>
       </c>
       <c r="E337">
         <v>49.3</v>
@@ -9633,16 +9635,16 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
+        <v>277</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338">
         <v>155</v>
       </c>
-      <c r="B338">
-        <v>277</v>
-      </c>
-      <c r="C338">
+      <c r="D338">
         <v>40800</v>
-      </c>
-      <c r="D338" t="s">
-        <v>7</v>
       </c>
       <c r="E338">
         <v>40.799999999999997</v>
@@ -9659,16 +9661,16 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
+        <v>277</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339">
         <v>155</v>
       </c>
-      <c r="B339">
-        <v>277</v>
-      </c>
-      <c r="C339">
+      <c r="D339">
         <v>43500</v>
-      </c>
-      <c r="D339" t="s">
-        <v>7</v>
       </c>
       <c r="E339">
         <v>43.5</v>
@@ -9685,16 +9687,16 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
+        <v>300</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340">
         <v>155</v>
       </c>
-      <c r="B340">
-        <v>300</v>
-      </c>
-      <c r="C340">
+      <c r="D340">
         <v>43100</v>
-      </c>
-      <c r="D340" t="s">
-        <v>7</v>
       </c>
       <c r="E340">
         <v>43.1</v>
@@ -9711,16 +9713,16 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
+        <v>300</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341">
         <v>155</v>
       </c>
-      <c r="B341">
-        <v>300</v>
-      </c>
-      <c r="C341">
+      <c r="D341">
         <v>42700</v>
-      </c>
-      <c r="D341" t="s">
-        <v>7</v>
       </c>
       <c r="E341">
         <v>42.7</v>
@@ -9737,16 +9739,16 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
+        <v>281</v>
+      </c>
+      <c r="B342" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342">
         <v>155</v>
       </c>
-      <c r="B342">
-        <v>281</v>
-      </c>
-      <c r="C342">
+      <c r="D342">
         <v>45300</v>
-      </c>
-      <c r="D342" t="s">
-        <v>7</v>
       </c>
       <c r="E342">
         <v>45.3</v>
@@ -9763,16 +9765,16 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
+        <v>281</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343">
         <v>155</v>
       </c>
-      <c r="B343">
-        <v>281</v>
-      </c>
-      <c r="C343">
+      <c r="D343">
         <v>45000</v>
-      </c>
-      <c r="D343" t="s">
-        <v>7</v>
       </c>
       <c r="E343">
         <v>45</v>
@@ -9789,16 +9791,16 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
+        <v>279</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344">
         <v>155</v>
       </c>
-      <c r="B344">
-        <v>279</v>
-      </c>
-      <c r="C344">
+      <c r="D344">
         <v>45200</v>
-      </c>
-      <c r="D344" t="s">
-        <v>7</v>
       </c>
       <c r="E344">
         <v>45.2</v>
@@ -9815,16 +9817,16 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
+        <v>279</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345">
         <v>155</v>
       </c>
-      <c r="B345">
-        <v>279</v>
-      </c>
-      <c r="C345">
+      <c r="D345">
         <v>44800</v>
-      </c>
-      <c r="D345" t="s">
-        <v>7</v>
       </c>
       <c r="E345">
         <v>44.8</v>
@@ -9841,16 +9843,16 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
+        <v>278</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346">
         <v>155</v>
       </c>
-      <c r="B346">
-        <v>278</v>
-      </c>
-      <c r="C346">
+      <c r="D346">
         <v>43700</v>
-      </c>
-      <c r="D346" t="s">
-        <v>7</v>
       </c>
       <c r="E346">
         <v>43.7</v>
@@ -9867,16 +9869,16 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
+        <v>278</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347">
         <v>155</v>
       </c>
-      <c r="B347">
-        <v>278</v>
-      </c>
-      <c r="C347">
+      <c r="D347">
         <v>43500</v>
-      </c>
-      <c r="D347" t="s">
-        <v>7</v>
       </c>
       <c r="E347">
         <v>43.5</v>
@@ -9893,16 +9895,16 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
+        <v>280</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348">
         <v>155</v>
       </c>
-      <c r="B348">
-        <v>280</v>
-      </c>
-      <c r="C348">
+      <c r="D348">
         <v>47800</v>
-      </c>
-      <c r="D348" t="s">
-        <v>7</v>
       </c>
       <c r="E348">
         <v>47.8</v>
@@ -9919,16 +9921,16 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
+        <v>280</v>
+      </c>
+      <c r="B349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349">
         <v>155</v>
       </c>
-      <c r="B349">
-        <v>280</v>
-      </c>
-      <c r="C349">
+      <c r="D349">
         <v>47900</v>
-      </c>
-      <c r="D349" t="s">
-        <v>7</v>
       </c>
       <c r="E349">
         <v>47.9</v>
@@ -9945,16 +9947,16 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
+        <v>276</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350">
         <v>155</v>
       </c>
-      <c r="B350">
-        <v>276</v>
-      </c>
-      <c r="C350">
+      <c r="D350">
         <v>44000</v>
-      </c>
-      <c r="D350" t="s">
-        <v>7</v>
       </c>
       <c r="E350">
         <v>44</v>
@@ -9971,16 +9973,16 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
+        <v>276</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351">
         <v>155</v>
       </c>
-      <c r="B351">
-        <v>276</v>
-      </c>
-      <c r="C351">
+      <c r="D351">
         <v>44000</v>
-      </c>
-      <c r="D351" t="s">
-        <v>7</v>
       </c>
       <c r="E351">
         <v>44</v>
